--- a/data/新大陆3月线下数据.xlsx
+++ b/data/新大陆3月线下数据.xlsx
@@ -3458,7 +3458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3469,6 +3469,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3749,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3761,6 +3764,8 @@
     <col min="15" max="16" width="9" style="1"/>
     <col min="18" max="18" width="9" style="1"/>
     <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="4"/>
+    <col min="25" max="27" width="9" style="4"/>
     <col min="29" max="29" width="9" style="1"/>
     <col min="33" max="33" width="9" style="1"/>
     <col min="35" max="35" width="9" style="1"/>
@@ -3769,11 +3774,13 @@
     <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="9" style="4"/>
     <col min="54" max="54" width="12.5" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3844,19 +3851,19 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AB1" t="s">
@@ -3904,16 +3911,16 @@
       <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AU1" t="s">
@@ -3949,13 +3956,13 @@
       <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="BI1" t="s">
@@ -4047,19 +4054,19 @@
       <c r="V2" t="s">
         <v>71</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>41</v>
       </c>
       <c r="X2" t="s">
         <v>77</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
+      <c r="Y2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4">
         <v>3</v>
       </c>
       <c r="AB2" t="s">
@@ -4107,16 +4114,16 @@
       <c r="AP2" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="4">
         <v>15</v>
       </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
+      <c r="AR2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="4">
         <v>4</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="4">
         <v>0</v>
       </c>
       <c r="BA2">
@@ -4134,13 +4141,13 @@
       <c r="BE2" t="s">
         <v>88</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="4">
         <v>2001</v>
       </c>
       <c r="BG2" s="2">
         <v>12565700</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="BI2">
@@ -4232,19 +4239,19 @@
       <c r="V3" t="s">
         <v>100</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>35</v>
       </c>
       <c r="X3" t="s">
         <v>77</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
+      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="4">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -4292,16 +4299,16 @@
       <c r="AP3" t="s">
         <v>114</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="4">
         <v>13</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
+      <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
         <v>3</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="4">
         <v>0</v>
       </c>
       <c r="BA3">
@@ -4319,13 +4326,13 @@
       <c r="BE3" t="s">
         <v>115</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="4">
         <v>750</v>
       </c>
       <c r="BG3" s="2">
         <v>10702400</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>116</v>
       </c>
       <c r="BI3">
@@ -4417,19 +4424,19 @@
       <c r="V4" t="s">
         <v>126</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>77</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="Y4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
@@ -4477,16 +4484,16 @@
       <c r="AP4" t="s">
         <v>140</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="4">
         <v>16</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
         <v>0</v>
       </c>
       <c r="BA4">
@@ -4504,13 +4511,13 @@
       <c r="BE4" t="s">
         <v>141</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="4">
         <v>430</v>
       </c>
       <c r="BG4" s="3">
         <v>5606300</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>142</v>
       </c>
       <c r="BI4">
@@ -4602,19 +4609,19 @@
       <c r="V5" t="s">
         <v>152</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="4">
         <v>27</v>
       </c>
       <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
         <v>1</v>
       </c>
       <c r="AB5" t="s">
@@ -4662,16 +4669,16 @@
       <c r="AP5" t="s">
         <v>92</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="4">
         <v>5</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="4">
         <v>2</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="4">
         <v>4</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="4">
         <v>0</v>
       </c>
       <c r="BA5">
@@ -4689,13 +4696,13 @@
       <c r="BE5" t="s">
         <v>164</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="4">
         <v>515</v>
       </c>
       <c r="BG5" s="3">
         <v>6311300</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BH5" s="4" t="s">
         <v>165</v>
       </c>
       <c r="BI5">
@@ -4787,19 +4794,19 @@
       <c r="V6" t="s">
         <v>180</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>31</v>
       </c>
       <c r="X6" t="s">
         <v>77</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
         <v>2</v>
       </c>
       <c r="AB6" t="s">
@@ -4847,16 +4854,16 @@
       <c r="AP6" t="s">
         <v>92</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="4">
         <v>8</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
         <v>3</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="4">
         <v>0</v>
       </c>
       <c r="BA6">
@@ -4874,13 +4881,13 @@
       <c r="BE6" t="s">
         <v>189</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="4">
         <v>997</v>
       </c>
       <c r="BG6" s="3">
         <v>6307100</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BH6" s="4" t="s">
         <v>190</v>
       </c>
       <c r="BI6">
@@ -4972,19 +4979,19 @@
       <c r="V7" t="s">
         <v>202</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>30</v>
       </c>
       <c r="X7" t="s">
         <v>77</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4">
         <v>4</v>
       </c>
       <c r="AB7" t="s">
@@ -5032,16 +5039,16 @@
       <c r="AP7" t="s">
         <v>217</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="4">
         <v>3</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
         <v>2</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="4">
         <v>0</v>
       </c>
       <c r="BA7">
@@ -5059,13 +5066,13 @@
       <c r="BE7" t="s">
         <v>218</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="4">
         <v>122</v>
       </c>
       <c r="BG7" s="3">
         <v>4133500</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BH7" s="4" t="s">
         <v>219</v>
       </c>
       <c r="BI7">
@@ -5157,19 +5164,19 @@
       <c r="V8" t="s">
         <v>229</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>25</v>
       </c>
       <c r="X8" t="s">
         <v>77</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4">
         <v>2</v>
       </c>
       <c r="AB8" t="s">
@@ -5217,16 +5224,16 @@
       <c r="AP8" t="s">
         <v>240</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="4">
         <v>6</v>
       </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
+      <c r="AR8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="4">
         <v>2</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="4">
         <v>0</v>
       </c>
       <c r="BA8">
@@ -5244,13 +5251,13 @@
       <c r="BE8" t="s">
         <v>241</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="4">
         <v>1184</v>
       </c>
       <c r="BG8" s="3">
         <v>4305800</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BH8" s="4" t="s">
         <v>242</v>
       </c>
       <c r="BI8">
@@ -5342,19 +5349,19 @@
       <c r="V9" t="s">
         <v>249</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <v>32</v>
       </c>
       <c r="X9" t="s">
         <v>77</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
         <v>2</v>
       </c>
       <c r="AB9" t="s">
@@ -5402,16 +5409,16 @@
       <c r="AP9" t="s">
         <v>259</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="4">
         <v>5</v>
       </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
+      <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4">
         <v>2</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="4">
         <v>0</v>
       </c>
       <c r="BA9">
@@ -5429,13 +5436,13 @@
       <c r="BE9" t="s">
         <v>218</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="4">
         <v>230</v>
       </c>
       <c r="BG9" s="3">
         <v>4241600</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BH9" s="4" t="s">
         <v>260</v>
       </c>
       <c r="BI9">
@@ -5527,19 +5534,19 @@
       <c r="V10" t="s">
         <v>268</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="4">
         <v>31</v>
       </c>
       <c r="X10" t="s">
         <v>77</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
+      <c r="Y10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
         <v>1</v>
       </c>
       <c r="AB10" t="s">
@@ -5587,16 +5594,16 @@
       <c r="AP10" t="s">
         <v>279</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="4">
         <v>5</v>
       </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
+      <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
         <v>0</v>
       </c>
       <c r="BA10">
@@ -5614,13 +5621,13 @@
       <c r="BE10" t="s">
         <v>189</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="4">
         <v>2361</v>
       </c>
       <c r="BG10" s="3">
         <v>4587800</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BH10" s="4" t="s">
         <v>280</v>
       </c>
       <c r="BI10">
@@ -5712,19 +5719,19 @@
       <c r="V11" t="s">
         <v>289</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="4">
         <v>40</v>
       </c>
       <c r="X11" t="s">
         <v>77</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
+      <c r="Y11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4">
         <v>3</v>
       </c>
       <c r="AB11" t="s">
@@ -5772,16 +5779,16 @@
       <c r="AP11" t="s">
         <v>301</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="4">
         <v>6</v>
       </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
+      <c r="AR11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="4">
         <v>0</v>
       </c>
       <c r="BA11">
@@ -5799,13 +5806,13 @@
       <c r="BE11" t="s">
         <v>88</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="4">
         <v>154</v>
       </c>
       <c r="BG11" s="3">
         <v>3326100</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BH11" s="4" t="s">
         <v>302</v>
       </c>
       <c r="BI11">
@@ -5897,19 +5904,19 @@
       <c r="V12" t="s">
         <v>313</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>42</v>
       </c>
       <c r="X12" t="s">
         <v>77</v>
       </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
+      <c r="Y12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
         <v>1</v>
       </c>
       <c r="AB12" t="s">
@@ -5957,16 +5964,16 @@
       <c r="AP12" t="s">
         <v>326</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="4">
         <v>18</v>
       </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="4">
         <v>0</v>
       </c>
       <c r="BA12">
@@ -5984,13 +5991,13 @@
       <c r="BE12" t="s">
         <v>327</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="4">
         <v>686</v>
       </c>
       <c r="BG12" s="3">
         <v>6010200</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BH12" s="4" t="s">
         <v>328</v>
       </c>
       <c r="BI12">
@@ -6082,19 +6089,19 @@
       <c r="V13" t="s">
         <v>338</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="4">
         <v>37</v>
       </c>
       <c r="X13" t="s">
         <v>77</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
         <v>1</v>
       </c>
       <c r="AB13" t="s">
@@ -6142,16 +6149,16 @@
       <c r="AP13" t="s">
         <v>351</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="4">
         <v>4</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4">
         <v>2</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="4">
         <v>0</v>
       </c>
       <c r="BA13">
@@ -6169,13 +6176,13 @@
       <c r="BE13" t="s">
         <v>218</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" s="4">
         <v>434</v>
       </c>
       <c r="BG13" s="3">
         <v>2371200</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BH13" s="4" t="s">
         <v>352</v>
       </c>
       <c r="BI13">
@@ -6267,19 +6274,19 @@
       <c r="V14" t="s">
         <v>360</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="4">
         <v>39</v>
       </c>
       <c r="X14" t="s">
         <v>77</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
+      <c r="Y14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
         <v>2</v>
       </c>
       <c r="AB14" t="s">
@@ -6327,16 +6334,16 @@
       <c r="AP14" t="s">
         <v>370</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="4">
         <v>4</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
         <v>2</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="4">
         <v>0</v>
       </c>
       <c r="BA14">
@@ -6354,13 +6361,13 @@
       <c r="BE14" t="s">
         <v>371</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" s="4">
         <v>236</v>
       </c>
       <c r="BG14" s="3">
         <v>5247200</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BH14" s="4" t="s">
         <v>372</v>
       </c>
       <c r="BI14">
@@ -6452,19 +6459,19 @@
       <c r="V15" t="s">
         <v>381</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="4">
         <v>40</v>
       </c>
       <c r="X15" t="s">
         <v>77</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
+      <c r="Y15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="4">
         <v>1</v>
       </c>
       <c r="AB15" t="s">
@@ -6512,16 +6519,16 @@
       <c r="AP15" t="s">
         <v>88</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="4">
         <v>5</v>
       </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
+      <c r="AR15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
         <v>3</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="4">
         <v>0</v>
       </c>
       <c r="BA15">
@@ -6539,13 +6546,13 @@
       <c r="BE15" t="s">
         <v>370</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" s="4">
         <v>199</v>
       </c>
       <c r="BG15" s="3">
         <v>4437500</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BH15" s="4" t="s">
         <v>219</v>
       </c>
       <c r="BI15">
@@ -6637,19 +6644,19 @@
       <c r="V16" t="s">
         <v>400</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="4">
         <v>39</v>
       </c>
       <c r="X16" t="s">
         <v>77</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
@@ -6697,16 +6704,16 @@
       <c r="AP16" t="s">
         <v>326</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="4">
         <v>10</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="4">
         <v>3</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="4">
         <v>4</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" s="4">
         <v>0</v>
       </c>
       <c r="BA16">
@@ -6724,13 +6731,13 @@
       <c r="BE16" t="s">
         <v>411</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" s="4">
         <v>493</v>
       </c>
       <c r="BG16" s="3">
         <v>4058200</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BH16" s="4" t="s">
         <v>412</v>
       </c>
       <c r="BI16">
@@ -6822,19 +6829,19 @@
       <c r="V17" t="s">
         <v>429</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="4">
         <v>30</v>
       </c>
       <c r="X17" t="s">
         <v>77</v>
       </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
         <v>4</v>
       </c>
       <c r="AB17" t="s">
@@ -6882,16 +6889,16 @@
       <c r="AP17" t="s">
         <v>92</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" s="4">
         <v>6</v>
       </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>1</v>
-      </c>
-      <c r="AT17">
+      <c r="AR17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="4">
         <v>0</v>
       </c>
       <c r="BA17">
@@ -6909,13 +6916,13 @@
       <c r="BE17" t="s">
         <v>438</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" s="4">
         <v>444</v>
       </c>
       <c r="BG17" s="3">
         <v>1782600</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BH17" s="4" t="s">
         <v>439</v>
       </c>
       <c r="BI17">
@@ -7007,19 +7014,19 @@
       <c r="V18" t="s">
         <v>454</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="4">
         <v>30</v>
       </c>
       <c r="X18" t="s">
         <v>77</v>
       </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
+      <c r="Y18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4">
         <v>4</v>
       </c>
       <c r="AB18" t="s">
@@ -7067,16 +7074,16 @@
       <c r="AP18" t="s">
         <v>326</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="4">
         <v>6</v>
       </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
+      <c r="AR18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="4">
         <v>2</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" s="4">
         <v>0</v>
       </c>
       <c r="BA18">
@@ -7094,13 +7101,13 @@
       <c r="BE18" t="s">
         <v>370</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" s="4">
         <v>557</v>
       </c>
       <c r="BG18" s="3">
         <v>1495300</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BH18" s="4" t="s">
         <v>463</v>
       </c>
       <c r="BI18">
@@ -7192,19 +7199,19 @@
       <c r="V19" t="s">
         <v>474</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="4">
         <v>38</v>
       </c>
       <c r="X19" t="s">
         <v>77</v>
       </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
         <v>1</v>
       </c>
       <c r="AB19" t="s">
@@ -7252,16 +7259,16 @@
       <c r="AP19" t="s">
         <v>485</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" s="4">
         <v>3</v>
       </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
         <v>2</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" s="4">
         <v>0</v>
       </c>
       <c r="BA19">
@@ -7279,13 +7286,13 @@
       <c r="BE19" t="s">
         <v>218</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" s="4">
         <v>290</v>
       </c>
       <c r="BG19" s="3">
         <v>1924800</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BH19" s="4" t="s">
         <v>486</v>
       </c>
       <c r="BI19">
@@ -7377,19 +7384,19 @@
       <c r="V20" t="s">
         <v>496</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="4">
         <v>31</v>
       </c>
       <c r="X20" t="s">
         <v>77</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
+      <c r="Y20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
         <v>4</v>
       </c>
       <c r="AB20" t="s">
@@ -7437,16 +7444,16 @@
       <c r="AP20" t="s">
         <v>508</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" s="4">
         <v>5</v>
       </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
+      <c r="AR20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="4">
         <v>0</v>
       </c>
       <c r="BA20">
@@ -7464,13 +7471,13 @@
       <c r="BE20" t="s">
         <v>115</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" s="4">
         <v>343</v>
       </c>
       <c r="BG20" s="3">
         <v>1474900</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BH20" s="4" t="s">
         <v>412</v>
       </c>
       <c r="BI20">
@@ -7562,19 +7569,19 @@
       <c r="V21" t="s">
         <v>518</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="4">
         <v>32</v>
       </c>
       <c r="X21" t="s">
         <v>77</v>
       </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
+      <c r="Y21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
         <v>4</v>
       </c>
       <c r="AB21" t="s">
@@ -7622,16 +7629,16 @@
       <c r="AP21" t="s">
         <v>92</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="4">
         <v>11</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
+      <c r="AR21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="4">
         <v>2</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="4">
         <v>0</v>
       </c>
       <c r="BA21">
@@ -7649,13 +7656,13 @@
       <c r="BE21" t="s">
         <v>115</v>
       </c>
-      <c r="BF21">
+      <c r="BF21" s="4">
         <v>470</v>
       </c>
       <c r="BG21" s="3">
         <v>1174600</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BH21" s="4" t="s">
         <v>530</v>
       </c>
       <c r="BI21">
@@ -7747,19 +7754,19 @@
       <c r="V22" t="s">
         <v>544</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="4">
         <v>34</v>
       </c>
       <c r="X22" t="s">
         <v>77</v>
       </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
         <v>4</v>
       </c>
       <c r="AB22" t="s">
@@ -7807,16 +7814,16 @@
       <c r="AP22" t="s">
         <v>326</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" s="4">
         <v>4</v>
       </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
-      <c r="AS22">
+      <c r="AR22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="4">
         <v>4</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" s="4">
         <v>0</v>
       </c>
       <c r="BA22">
@@ -7834,13 +7841,13 @@
       <c r="BE22" t="s">
         <v>371</v>
       </c>
-      <c r="BF22">
+      <c r="BF22" s="4">
         <v>88</v>
       </c>
       <c r="BG22" s="3">
         <v>622200</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BH22" s="4" t="s">
         <v>115</v>
       </c>
       <c r="BI22">
@@ -7932,19 +7939,19 @@
       <c r="V23" t="s">
         <v>564</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="4">
         <v>31</v>
       </c>
       <c r="X23" t="s">
         <v>77</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="4">
         <v>3</v>
       </c>
       <c r="AB23" t="s">
@@ -7992,16 +7999,16 @@
       <c r="AP23" t="s">
         <v>576</v>
       </c>
-      <c r="AQ23">
+      <c r="AQ23" s="4">
         <v>8</v>
       </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>1</v>
-      </c>
-      <c r="AT23">
+      <c r="AR23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="4">
         <v>0</v>
       </c>
       <c r="BA23">
@@ -8019,13 +8026,13 @@
       <c r="BE23" t="s">
         <v>218</v>
       </c>
-      <c r="BF23">
+      <c r="BF23" s="4">
         <v>247</v>
       </c>
       <c r="BG23" s="3">
         <v>2499400</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BH23" s="4" t="s">
         <v>577</v>
       </c>
       <c r="BI23">
@@ -8117,19 +8124,19 @@
       <c r="V24" t="s">
         <v>585</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="4">
         <v>28</v>
       </c>
       <c r="X24" t="s">
         <v>77</v>
       </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24">
+      <c r="Y24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="4">
         <v>2</v>
       </c>
       <c r="AB24" t="s">
@@ -8177,16 +8184,16 @@
       <c r="AP24" t="s">
         <v>92</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ24" s="4">
         <v>3</v>
       </c>
-      <c r="AR24">
-        <v>1</v>
-      </c>
-      <c r="AS24">
+      <c r="AR24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="4">
         <v>2</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" s="4">
         <v>0</v>
       </c>
       <c r="BA24">
@@ -8204,13 +8211,13 @@
       <c r="BE24" t="s">
         <v>88</v>
       </c>
-      <c r="BF24">
+      <c r="BF24" s="4">
         <v>153</v>
       </c>
       <c r="BG24" s="3">
         <v>1595800</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BH24" s="4" t="s">
         <v>596</v>
       </c>
       <c r="BI24">
@@ -8302,19 +8309,19 @@
       <c r="V25" t="s">
         <v>611</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="4">
         <v>29</v>
       </c>
       <c r="X25" t="s">
         <v>77</v>
       </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
         <v>2</v>
       </c>
       <c r="AB25" t="s">
@@ -8362,16 +8369,16 @@
       <c r="AP25" t="s">
         <v>115</v>
       </c>
-      <c r="AQ25">
+      <c r="AQ25" s="4">
         <v>6</v>
       </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
+      <c r="AR25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="4">
         <v>2</v>
       </c>
-      <c r="AT25">
+      <c r="AT25" s="4">
         <v>0</v>
       </c>
       <c r="BA25">
@@ -8389,13 +8396,13 @@
       <c r="BE25" t="s">
         <v>326</v>
       </c>
-      <c r="BF25">
+      <c r="BF25" s="4">
         <v>541</v>
       </c>
       <c r="BG25" s="3">
         <v>4034400</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BH25" s="4" t="s">
         <v>618</v>
       </c>
       <c r="BI25">
@@ -8487,19 +8494,19 @@
       <c r="V26" t="s">
         <v>626</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="4">
         <v>34</v>
       </c>
       <c r="X26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
+      <c r="Y26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="4">
         <v>2</v>
       </c>
       <c r="AB26" t="s">
@@ -8547,16 +8554,16 @@
       <c r="AP26" t="s">
         <v>371</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="4">
         <v>8</v>
       </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
+      <c r="AR26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="4">
         <v>3</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="4">
         <v>0</v>
       </c>
       <c r="BA26">
@@ -8574,13 +8581,13 @@
       <c r="BE26" t="s">
         <v>438</v>
       </c>
-      <c r="BF26">
+      <c r="BF26" s="4">
         <v>254</v>
       </c>
       <c r="BG26" s="3">
         <v>673000</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BH26" s="4" t="s">
         <v>637</v>
       </c>
       <c r="BI26">
@@ -8672,19 +8679,19 @@
       <c r="V27" t="s">
         <v>649</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="4">
         <v>41</v>
       </c>
       <c r="X27" t="s">
         <v>77</v>
       </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
+      <c r="Y27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="4">
         <v>1</v>
       </c>
       <c r="AB27" t="s">
@@ -8732,16 +8739,16 @@
       <c r="AP27" t="s">
         <v>92</v>
       </c>
-      <c r="AQ27">
+      <c r="AQ27" s="4">
         <v>5</v>
       </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
+      <c r="AR27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="4">
         <v>0</v>
       </c>
       <c r="BA27">
@@ -8759,13 +8766,13 @@
       <c r="BE27" t="s">
         <v>370</v>
       </c>
-      <c r="BF27">
+      <c r="BF27" s="4">
         <v>100</v>
       </c>
       <c r="BG27" s="3">
         <v>1030500</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BH27" s="4" t="s">
         <v>438</v>
       </c>
       <c r="BI27">
@@ -8857,19 +8864,19 @@
       <c r="V28" t="s">
         <v>670</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="4">
         <v>35</v>
       </c>
       <c r="X28" t="s">
         <v>671</v>
       </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
+      <c r="Y28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="4">
         <v>4</v>
       </c>
       <c r="AB28" t="s">
@@ -8917,16 +8924,16 @@
       <c r="AP28" t="s">
         <v>370</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ28" s="4">
         <v>8</v>
       </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
+      <c r="AR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="4">
         <v>2</v>
       </c>
-      <c r="AT28">
+      <c r="AT28" s="4">
         <v>0</v>
       </c>
       <c r="BA28">
@@ -8944,13 +8951,13 @@
       <c r="BE28" t="s">
         <v>326</v>
       </c>
-      <c r="BF28">
+      <c r="BF28" s="4">
         <v>216</v>
       </c>
       <c r="BG28" s="3">
         <v>1296800</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BH28" s="4" t="s">
         <v>439</v>
       </c>
       <c r="BI28">
@@ -9042,19 +9049,19 @@
       <c r="V29" t="s">
         <v>683</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="4">
         <v>43</v>
       </c>
       <c r="X29" t="s">
         <v>77</v>
       </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
+      <c r="Y29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="4">
         <v>1</v>
       </c>
       <c r="AB29" t="s">
@@ -9102,16 +9109,16 @@
       <c r="AP29" t="s">
         <v>115</v>
       </c>
-      <c r="AQ29">
+      <c r="AQ29" s="4">
         <v>15</v>
       </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
+      <c r="AR29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="4">
         <v>2</v>
       </c>
-      <c r="AT29">
+      <c r="AT29" s="4">
         <v>0</v>
       </c>
       <c r="BA29">
@@ -9129,13 +9136,13 @@
       <c r="BE29" t="s">
         <v>370</v>
       </c>
-      <c r="BF29">
+      <c r="BF29" s="4">
         <v>162</v>
       </c>
       <c r="BG29" s="3">
         <v>1398500</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BH29" s="4" t="s">
         <v>486</v>
       </c>
       <c r="BI29">
@@ -9227,19 +9234,19 @@
       <c r="V30" t="s">
         <v>702</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="4">
         <v>50</v>
       </c>
       <c r="X30" t="s">
         <v>77</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
+      <c r="Y30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="4">
         <v>1</v>
       </c>
       <c r="AB30" t="s">
@@ -9287,16 +9294,16 @@
       <c r="AP30" t="s">
         <v>241</v>
       </c>
-      <c r="AQ30">
+      <c r="AQ30" s="4">
         <v>5</v>
       </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
+      <c r="AR30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="4">
         <v>3</v>
       </c>
-      <c r="AT30">
+      <c r="AT30" s="4">
         <v>0</v>
       </c>
       <c r="BA30">
@@ -9314,13 +9321,13 @@
       <c r="BE30" t="s">
         <v>88</v>
       </c>
-      <c r="BF30">
+      <c r="BF30" s="4">
         <v>422</v>
       </c>
       <c r="BG30" s="3">
         <v>1930700</v>
       </c>
-      <c r="BH30" t="s">
+      <c r="BH30" s="4" t="s">
         <v>714</v>
       </c>
       <c r="BI30">
@@ -9412,19 +9419,19 @@
       <c r="V31" t="s">
         <v>722</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="4">
         <v>37</v>
       </c>
       <c r="X31" t="s">
         <v>77</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
+      <c r="Y31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="4">
         <v>2</v>
       </c>
       <c r="AB31" t="s">
@@ -9472,16 +9479,16 @@
       <c r="AP31" t="s">
         <v>370</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ31" s="4">
         <v>10</v>
       </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>1</v>
-      </c>
-      <c r="AT31">
+      <c r="AR31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="4">
         <v>0</v>
       </c>
       <c r="BA31">
@@ -9499,13 +9506,13 @@
       <c r="BE31" t="s">
         <v>370</v>
       </c>
-      <c r="BF31">
+      <c r="BF31" s="4">
         <v>391</v>
       </c>
       <c r="BG31" s="3">
         <v>3891200</v>
       </c>
-      <c r="BH31" t="s">
+      <c r="BH31" s="4" t="s">
         <v>733</v>
       </c>
       <c r="BI31">
@@ -9597,19 +9604,19 @@
       <c r="V32" t="s">
         <v>741</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="4">
         <v>42</v>
       </c>
       <c r="X32" t="s">
         <v>77</v>
       </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
+      <c r="Y32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="4">
         <v>4</v>
       </c>
       <c r="AB32" t="s">
@@ -9657,16 +9664,16 @@
       <c r="AP32" t="s">
         <v>92</v>
       </c>
-      <c r="AQ32">
+      <c r="AQ32" s="4">
         <v>12</v>
       </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
+      <c r="AR32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="4">
         <v>2</v>
       </c>
-      <c r="AT32">
+      <c r="AT32" s="4">
         <v>0</v>
       </c>
       <c r="BA32">
@@ -9684,13 +9691,13 @@
       <c r="BE32" t="s">
         <v>371</v>
       </c>
-      <c r="BF32">
+      <c r="BF32" s="4">
         <v>347</v>
       </c>
       <c r="BG32" s="3">
         <v>4168800</v>
       </c>
-      <c r="BH32" t="s">
+      <c r="BH32" s="4" t="s">
         <v>751</v>
       </c>
       <c r="BI32">
@@ -9782,19 +9789,19 @@
       <c r="V33" t="s">
         <v>761</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="4">
         <v>28</v>
       </c>
       <c r="X33" t="s">
         <v>671</v>
       </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="4">
         <v>4</v>
       </c>
       <c r="AB33" t="s">
@@ -9842,16 +9849,16 @@
       <c r="AP33" t="s">
         <v>773</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ33" s="4">
         <v>3</v>
       </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
+      <c r="AR33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="4">
         <v>3</v>
       </c>
-      <c r="AT33">
+      <c r="AT33" s="4">
         <v>0</v>
       </c>
       <c r="BA33">
@@ -9869,13 +9876,13 @@
       <c r="BE33" t="s">
         <v>774</v>
       </c>
-      <c r="BF33">
+      <c r="BF33" s="4">
         <v>137</v>
       </c>
       <c r="BG33" s="3">
         <v>484250</v>
       </c>
-      <c r="BH33" t="s">
+      <c r="BH33" s="4" t="s">
         <v>164</v>
       </c>
       <c r="BI33">
@@ -9967,19 +9974,19 @@
       <c r="V34" t="s">
         <v>782</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="4">
         <v>32</v>
       </c>
       <c r="X34" t="s">
         <v>77</v>
       </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
+      <c r="Y34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="4">
         <v>1</v>
       </c>
       <c r="AB34" t="s">
@@ -10027,16 +10034,16 @@
       <c r="AP34" t="s">
         <v>794</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ34" s="4">
         <v>4</v>
       </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
+      <c r="AR34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="4">
         <v>3</v>
       </c>
-      <c r="AT34">
+      <c r="AT34" s="4">
         <v>0</v>
       </c>
       <c r="BA34">
@@ -10054,13 +10061,13 @@
       <c r="BE34" t="s">
         <v>115</v>
       </c>
-      <c r="BF34">
+      <c r="BF34" s="4">
         <v>318</v>
       </c>
       <c r="BG34" s="3">
         <v>1106400</v>
       </c>
-      <c r="BH34" t="s">
+      <c r="BH34" s="4" t="s">
         <v>438</v>
       </c>
       <c r="BI34">
@@ -10152,19 +10159,19 @@
       <c r="V35" t="s">
         <v>806</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="4">
         <v>42</v>
       </c>
       <c r="X35" t="s">
         <v>77</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="Y35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4">
         <v>1</v>
       </c>
       <c r="AB35" t="s">
@@ -10212,16 +10219,16 @@
       <c r="AP35" t="s">
         <v>92</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ35" s="4">
         <v>8</v>
       </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
+      <c r="AR35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="4">
         <v>2</v>
       </c>
-      <c r="AT35">
+      <c r="AT35" s="4">
         <v>0</v>
       </c>
       <c r="BA35">
@@ -10239,13 +10246,13 @@
       <c r="BE35" t="s">
         <v>411</v>
       </c>
-      <c r="BF35">
+      <c r="BF35" s="4">
         <v>66</v>
       </c>
       <c r="BG35" s="3">
         <v>43300</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BH35" s="4" t="s">
         <v>370</v>
       </c>
       <c r="BI35">
@@ -10337,19 +10344,19 @@
       <c r="V36" t="s">
         <v>824</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="4">
         <v>27</v>
       </c>
       <c r="X36" t="s">
         <v>77</v>
       </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="Y36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4">
         <v>4</v>
       </c>
       <c r="AB36" t="s">
@@ -10397,16 +10404,16 @@
       <c r="AP36" t="s">
         <v>835</v>
       </c>
-      <c r="AQ36">
-        <v>1</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
+      <c r="AQ36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="4">
         <v>2</v>
       </c>
-      <c r="AT36">
+      <c r="AT36" s="4">
         <v>0</v>
       </c>
       <c r="BA36">
@@ -10424,13 +10431,13 @@
       <c r="BE36" t="s">
         <v>326</v>
       </c>
-      <c r="BF36">
+      <c r="BF36" s="4">
         <v>84</v>
       </c>
       <c r="BG36" s="3">
         <v>1098400</v>
       </c>
-      <c r="BH36" t="s">
+      <c r="BH36" s="4" t="s">
         <v>241</v>
       </c>
       <c r="BI36">
@@ -10522,19 +10529,19 @@
       <c r="V37" t="s">
         <v>843</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="4">
         <v>43</v>
       </c>
       <c r="X37" t="s">
         <v>77</v>
       </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AA37">
+      <c r="Y37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="4">
         <v>2</v>
       </c>
       <c r="AB37" t="s">
@@ -10582,16 +10589,16 @@
       <c r="AP37" t="s">
         <v>92</v>
       </c>
-      <c r="AQ37">
+      <c r="AQ37" s="4">
         <v>10</v>
       </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
+      <c r="AR37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="4">
         <v>2</v>
       </c>
-      <c r="AT37">
+      <c r="AT37" s="4">
         <v>0</v>
       </c>
       <c r="BA37">
@@ -10609,13 +10616,13 @@
       <c r="BE37" t="s">
         <v>411</v>
       </c>
-      <c r="BF37">
+      <c r="BF37" s="4">
         <v>214</v>
       </c>
       <c r="BG37" s="3">
         <v>1996900</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BH37" s="4" t="s">
         <v>854</v>
       </c>
       <c r="BI37">
@@ -10707,19 +10714,19 @@
       <c r="V38" t="s">
         <v>862</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="4">
         <v>37</v>
       </c>
       <c r="X38" t="s">
         <v>77</v>
       </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
+      <c r="Y38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="4">
         <v>1</v>
       </c>
       <c r="AB38" t="s">
@@ -10767,16 +10774,16 @@
       <c r="AP38" t="s">
         <v>92</v>
       </c>
-      <c r="AQ38">
+      <c r="AQ38" s="4">
         <v>15</v>
       </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
+      <c r="AR38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="4">
         <v>2</v>
       </c>
-      <c r="AT38">
+      <c r="AT38" s="4">
         <v>0</v>
       </c>
       <c r="BA38">
@@ -10794,13 +10801,13 @@
       <c r="BE38" t="s">
         <v>326</v>
       </c>
-      <c r="BF38">
+      <c r="BF38" s="4">
         <v>115</v>
       </c>
       <c r="BG38" s="3">
         <v>669900</v>
       </c>
-      <c r="BH38" t="s">
+      <c r="BH38" s="4" t="s">
         <v>637</v>
       </c>
       <c r="BI38">
@@ -10892,19 +10899,19 @@
       <c r="V39" t="s">
         <v>878</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="4">
         <v>32</v>
       </c>
       <c r="X39" t="s">
         <v>77</v>
       </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
+      <c r="Y39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="4">
         <v>4</v>
       </c>
       <c r="AB39" t="s">
@@ -10952,16 +10959,16 @@
       <c r="AP39" t="s">
         <v>889</v>
       </c>
-      <c r="AQ39">
+      <c r="AQ39" s="4">
         <v>5</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
+      <c r="AR39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="4">
         <v>2</v>
       </c>
-      <c r="AT39">
+      <c r="AT39" s="4">
         <v>0</v>
       </c>
       <c r="BA39">
@@ -10979,13 +10986,13 @@
       <c r="BE39" t="s">
         <v>115</v>
       </c>
-      <c r="BF39">
+      <c r="BF39" s="4">
         <v>641</v>
       </c>
       <c r="BG39" s="3">
         <v>3110800</v>
       </c>
-      <c r="BH39" t="s">
+      <c r="BH39" s="4" t="s">
         <v>890</v>
       </c>
       <c r="BI39">
@@ -11077,19 +11084,19 @@
       <c r="V40" t="s">
         <v>902</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="4">
         <v>35</v>
       </c>
       <c r="X40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40">
+      <c r="Y40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4">
         <v>3</v>
       </c>
       <c r="AB40" t="s">
@@ -11137,16 +11144,16 @@
       <c r="AP40" t="s">
         <v>88</v>
       </c>
-      <c r="AQ40">
+      <c r="AQ40" s="4">
         <v>3</v>
       </c>
-      <c r="AR40">
+      <c r="AR40" s="4">
         <v>2</v>
       </c>
-      <c r="AS40">
+      <c r="AS40" s="4">
         <v>4</v>
       </c>
-      <c r="AT40">
+      <c r="AT40" s="4">
         <v>0</v>
       </c>
       <c r="BA40">
@@ -11164,13 +11171,13 @@
       <c r="BE40" t="s">
         <v>326</v>
       </c>
-      <c r="BF40">
+      <c r="BF40" s="4">
         <v>45</v>
       </c>
       <c r="BG40" s="3">
         <v>702200</v>
       </c>
-      <c r="BH40" t="s">
+      <c r="BH40" s="4" t="s">
         <v>115</v>
       </c>
       <c r="BI40">
@@ -11262,19 +11269,19 @@
       <c r="V41" t="s">
         <v>919</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="4">
         <v>34</v>
       </c>
       <c r="X41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="4">
         <v>3</v>
       </c>
       <c r="AB41" t="s">
@@ -11322,16 +11329,16 @@
       <c r="AP41" t="s">
         <v>87</v>
       </c>
-      <c r="AQ41">
+      <c r="AQ41" s="4">
         <v>5</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
+      <c r="AR41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="4">
         <v>0</v>
       </c>
       <c r="BA41">
@@ -11349,13 +11356,13 @@
       <c r="BE41" t="s">
         <v>218</v>
       </c>
-      <c r="BF41">
+      <c r="BF41" s="4">
         <v>183</v>
       </c>
       <c r="BG41" s="3">
         <v>795700</v>
       </c>
-      <c r="BH41" t="s">
+      <c r="BH41" s="4" t="s">
         <v>596</v>
       </c>
       <c r="BI41">
@@ -11447,19 +11454,19 @@
       <c r="V42" t="s">
         <v>934</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="4">
         <v>37</v>
       </c>
       <c r="X42" t="s">
         <v>77</v>
       </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
+      <c r="Y42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="4">
         <v>1</v>
       </c>
       <c r="AB42" t="s">
@@ -11507,16 +11514,16 @@
       <c r="AP42" t="s">
         <v>92</v>
       </c>
-      <c r="AQ42">
+      <c r="AQ42" s="4">
         <v>5</v>
       </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>1</v>
-      </c>
-      <c r="AT42">
+      <c r="AR42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="4">
         <v>0</v>
       </c>
       <c r="BA42">
@@ -11534,13 +11541,13 @@
       <c r="BE42" t="s">
         <v>774</v>
       </c>
-      <c r="BF42">
+      <c r="BF42" s="4">
         <v>159</v>
       </c>
       <c r="BG42" s="3">
         <v>23800</v>
       </c>
-      <c r="BH42" t="s">
+      <c r="BH42" s="4" t="s">
         <v>326</v>
       </c>
       <c r="BI42">
@@ -11632,19 +11639,19 @@
       <c r="V43" t="s">
         <v>950</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="4">
         <v>40</v>
       </c>
       <c r="X43" t="s">
         <v>77</v>
       </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
+      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="4">
         <v>2</v>
       </c>
       <c r="AB43" t="s">
@@ -11692,16 +11699,16 @@
       <c r="AP43" t="s">
         <v>371</v>
       </c>
-      <c r="AQ43">
+      <c r="AQ43" s="4">
         <v>4</v>
       </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
+      <c r="AR43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="4">
         <v>3</v>
       </c>
-      <c r="AT43">
+      <c r="AT43" s="4">
         <v>0</v>
       </c>
       <c r="BA43">
@@ -11719,13 +11726,13 @@
       <c r="BE43" t="s">
         <v>326</v>
       </c>
-      <c r="BF43">
+      <c r="BF43" s="4">
         <v>60</v>
       </c>
       <c r="BG43" s="3">
         <v>779100</v>
       </c>
-      <c r="BH43" t="s">
+      <c r="BH43" s="4" t="s">
         <v>961</v>
       </c>
       <c r="BI43">
@@ -11817,19 +11824,19 @@
       <c r="V44" t="s">
         <v>971</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="4">
         <v>44</v>
       </c>
       <c r="X44" t="s">
         <v>671</v>
       </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
+      <c r="Y44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4">
         <v>1</v>
       </c>
       <c r="AB44" t="s">
@@ -11877,16 +11884,16 @@
       <c r="AP44" t="s">
         <v>327</v>
       </c>
-      <c r="AQ44">
+      <c r="AQ44" s="4">
         <v>4</v>
       </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
+      <c r="AR44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="4">
         <v>2</v>
       </c>
-      <c r="AT44">
+      <c r="AT44" s="4">
         <v>0</v>
       </c>
       <c r="BA44">
@@ -11904,13 +11911,13 @@
       <c r="BE44" t="s">
         <v>218</v>
       </c>
-      <c r="BF44">
+      <c r="BF44" s="4">
         <v>137</v>
       </c>
       <c r="BG44" s="3">
         <v>39800</v>
       </c>
-      <c r="BH44" t="s">
+      <c r="BH44" s="4" t="s">
         <v>371</v>
       </c>
       <c r="BI44">
@@ -12002,19 +12009,19 @@
       <c r="V45" t="s">
         <v>990</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="4">
         <v>28</v>
       </c>
       <c r="X45" t="s">
         <v>77</v>
       </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
+      <c r="Y45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="4">
         <v>1</v>
       </c>
       <c r="AB45" t="s">
@@ -12062,16 +12069,16 @@
       <c r="AP45" t="s">
         <v>999</v>
       </c>
-      <c r="AQ45">
+      <c r="AQ45" s="4">
         <v>3</v>
       </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
+      <c r="AR45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="4">
         <v>2</v>
       </c>
-      <c r="AT45">
+      <c r="AT45" s="4">
         <v>0</v>
       </c>
       <c r="BA45">
@@ -12089,13 +12096,13 @@
       <c r="BE45" t="s">
         <v>218</v>
       </c>
-      <c r="BF45">
+      <c r="BF45" s="4">
         <v>40</v>
       </c>
       <c r="BG45" s="3">
         <v>216800</v>
       </c>
-      <c r="BH45" t="s">
+      <c r="BH45" s="4" t="s">
         <v>371</v>
       </c>
       <c r="BI45">
@@ -12187,19 +12194,19 @@
       <c r="V46" t="s">
         <v>1007</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="4">
         <v>44</v>
       </c>
       <c r="X46" t="s">
         <v>77</v>
       </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
+      <c r="Y46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="4">
         <v>2</v>
       </c>
       <c r="AB46" t="s">
@@ -12247,16 +12254,16 @@
       <c r="AP46" t="s">
         <v>1019</v>
       </c>
-      <c r="AQ46">
+      <c r="AQ46" s="4">
         <v>14</v>
       </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
+      <c r="AR46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="4">
         <v>3</v>
       </c>
-      <c r="AT46">
+      <c r="AT46" s="4">
         <v>0</v>
       </c>
       <c r="BA46">
@@ -12274,13 +12281,13 @@
       <c r="BE46" t="s">
         <v>115</v>
       </c>
-      <c r="BF46">
+      <c r="BF46" s="4">
         <v>95</v>
       </c>
       <c r="BG46" s="3">
         <v>1846700</v>
       </c>
-      <c r="BH46" t="s">
+      <c r="BH46" s="4" t="s">
         <v>1020</v>
       </c>
       <c r="BI46">
@@ -12372,19 +12379,19 @@
       <c r="V47" t="s">
         <v>1029</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="4">
         <v>33</v>
       </c>
       <c r="X47" t="s">
         <v>77</v>
       </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
+      <c r="Y47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="4">
         <v>1</v>
       </c>
       <c r="AB47" t="s">
@@ -12432,16 +12439,16 @@
       <c r="AP47" t="s">
         <v>1041</v>
       </c>
-      <c r="AQ47">
+      <c r="AQ47" s="4">
         <v>5</v>
       </c>
-      <c r="AR47">
+      <c r="AR47" s="4">
         <v>2</v>
       </c>
-      <c r="AS47">
+      <c r="AS47" s="4">
         <v>4</v>
       </c>
-      <c r="AT47">
+      <c r="AT47" s="4">
         <v>0</v>
       </c>
       <c r="BA47">
@@ -12459,13 +12466,13 @@
       <c r="BE47" t="s">
         <v>218</v>
       </c>
-      <c r="BF47">
+      <c r="BF47" s="4">
         <v>50</v>
       </c>
       <c r="BG47" s="3">
         <v>3043100</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BH47" s="4" t="s">
         <v>219</v>
       </c>
       <c r="BI47">
@@ -12557,19 +12564,19 @@
       <c r="V48" t="s">
         <v>1053</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="4">
         <v>37</v>
       </c>
       <c r="X48" t="s">
         <v>77</v>
       </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48">
+      <c r="Y48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="4">
         <v>4</v>
       </c>
       <c r="AB48" t="s">
@@ -12617,16 +12624,16 @@
       <c r="AP48" t="s">
         <v>1065</v>
       </c>
-      <c r="AQ48">
+      <c r="AQ48" s="4">
         <v>14</v>
       </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>1</v>
-      </c>
-      <c r="AT48">
+      <c r="AR48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="4">
         <v>0</v>
       </c>
       <c r="BA48">
@@ -12644,13 +12651,13 @@
       <c r="BE48" t="s">
         <v>1066</v>
       </c>
-      <c r="BF48">
+      <c r="BF48" s="4">
         <v>675</v>
       </c>
       <c r="BG48" s="3">
         <v>6546100</v>
       </c>
-      <c r="BH48" t="s">
+      <c r="BH48" s="4" t="s">
         <v>1067</v>
       </c>
       <c r="BI48">
@@ -12742,19 +12749,19 @@
       <c r="V49" t="s">
         <v>1080</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="4">
         <v>26</v>
       </c>
       <c r="X49" t="s">
         <v>671</v>
       </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
+      <c r="Y49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="4">
         <v>2</v>
       </c>
       <c r="AB49" t="s">
@@ -12802,16 +12809,16 @@
       <c r="AP49" t="s">
         <v>92</v>
       </c>
-      <c r="AQ49">
+      <c r="AQ49" s="4">
         <v>5</v>
       </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AS49">
+      <c r="AR49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="4">
         <v>2</v>
       </c>
-      <c r="AT49">
+      <c r="AT49" s="4">
         <v>0</v>
       </c>
       <c r="BA49">
@@ -12829,13 +12836,13 @@
       <c r="BE49" t="s">
         <v>115</v>
       </c>
-      <c r="BF49">
+      <c r="BF49" s="4">
         <v>168</v>
       </c>
       <c r="BG49" s="3">
         <v>4686600</v>
       </c>
-      <c r="BH49" t="s">
+      <c r="BH49" s="4" t="s">
         <v>439</v>
       </c>
       <c r="BI49">
@@ -12927,19 +12934,19 @@
       <c r="V50" t="s">
         <v>1098</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="4">
         <v>37</v>
       </c>
       <c r="X50" t="s">
         <v>77</v>
       </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
+      <c r="Y50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="4">
         <v>1</v>
       </c>
       <c r="AB50" t="s">
@@ -12987,16 +12994,16 @@
       <c r="AP50" t="s">
         <v>92</v>
       </c>
-      <c r="AQ50">
+      <c r="AQ50" s="4">
         <v>6</v>
       </c>
-      <c r="AR50">
+      <c r="AR50" s="4">
         <v>2</v>
       </c>
-      <c r="AS50">
+      <c r="AS50" s="4">
         <v>4</v>
       </c>
-      <c r="AT50">
+      <c r="AT50" s="4">
         <v>0</v>
       </c>
       <c r="BA50">
@@ -13014,13 +13021,13 @@
       <c r="BE50" t="s">
         <v>141</v>
       </c>
-      <c r="BF50">
+      <c r="BF50" s="4">
         <v>371</v>
       </c>
       <c r="BG50" s="3">
         <v>5704800</v>
       </c>
-      <c r="BH50" t="s">
+      <c r="BH50" s="4" t="s">
         <v>854</v>
       </c>
       <c r="BI50">

--- a/data/新大陆3月线下数据.xlsx
+++ b/data/新大陆3月线下数据.xlsx
@@ -3441,7 +3441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3457,15 +3457,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3475,12 +3490,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3752,20 +3773,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BF15" sqref="BF15"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="15" max="16" width="9" style="1"/>
     <col min="18" max="18" width="9" style="1"/>
     <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4"/>
-    <col min="25" max="27" width="9" style="4"/>
+    <col min="23" max="23" width="9" style="3"/>
+    <col min="25" max="27" width="9" style="3"/>
     <col min="29" max="29" width="9" style="1"/>
     <col min="33" max="33" width="9" style="1"/>
     <col min="35" max="35" width="9" style="1"/>
@@ -3774,18 +3795,18 @@
     <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="9" style="4"/>
+    <col min="43" max="46" width="9" style="3"/>
     <col min="54" max="54" width="12.5" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="18" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3851,19 +3872,19 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB1" t="s">
@@ -3911,16 +3932,16 @@
       <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AU1" t="s">
@@ -3956,13 +3977,13 @@
       <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BI1" t="s">
@@ -3988,7 +4009,7 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>24015</v>
       </c>
       <c r="B2" t="s">
@@ -4054,19 +4075,19 @@
       <c r="V2" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <v>41</v>
       </c>
       <c r="X2" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="4">
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
         <v>3</v>
       </c>
       <c r="AB2" t="s">
@@ -4114,16 +4135,16 @@
       <c r="AP2" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="3">
         <v>15</v>
       </c>
-      <c r="AR2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="4">
+      <c r="AR2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3">
         <v>4</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="3">
         <v>0</v>
       </c>
       <c r="BA2">
@@ -4141,13 +4162,13 @@
       <c r="BE2" t="s">
         <v>88</v>
       </c>
-      <c r="BF2" s="4">
+      <c r="BF2" s="3">
         <v>2001</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2" s="3">
         <v>12565700</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="BI2">
@@ -4173,7 +4194,7 @@
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>21049</v>
       </c>
       <c r="B3" t="s">
@@ -4239,19 +4260,19 @@
       <c r="V3" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>35</v>
       </c>
       <c r="X3" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="4">
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -4299,16 +4320,16 @@
       <c r="AP3" t="s">
         <v>114</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="3">
         <v>13</v>
       </c>
-      <c r="AR3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="4">
+      <c r="AR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3">
         <v>3</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="3">
         <v>0</v>
       </c>
       <c r="BA3">
@@ -4326,13 +4347,13 @@
       <c r="BE3" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="4">
+      <c r="BF3" s="3">
         <v>750</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BG3" s="3">
         <v>10702400</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="3" t="s">
         <v>116</v>
       </c>
       <c r="BI3">
@@ -4358,7 +4379,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3628</v>
       </c>
       <c r="B4" t="s">
@@ -4424,19 +4445,19 @@
       <c r="V4" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
@@ -4484,16 +4505,16 @@
       <c r="AP4" t="s">
         <v>140</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="3">
         <v>16</v>
       </c>
-      <c r="AR4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4">
+      <c r="AR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3">
         <v>0</v>
       </c>
       <c r="BA4">
@@ -4511,13 +4532,13 @@
       <c r="BE4" t="s">
         <v>141</v>
       </c>
-      <c r="BF4" s="4">
+      <c r="BF4" s="3">
         <v>430</v>
       </c>
-      <c r="BG4" s="3">
+      <c r="BG4" s="2">
         <v>5606300</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BH4" s="3" t="s">
         <v>142</v>
       </c>
       <c r="BI4">
@@ -4543,7 +4564,7 @@
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>24110</v>
       </c>
       <c r="B5" t="s">
@@ -4609,19 +4630,19 @@
       <c r="V5" t="s">
         <v>152</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>27</v>
       </c>
       <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
         <v>1</v>
       </c>
       <c r="AB5" t="s">
@@ -4669,16 +4690,16 @@
       <c r="AP5" t="s">
         <v>92</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ5" s="3">
         <v>5</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="3">
         <v>2</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="3">
         <v>4</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="3">
         <v>0</v>
       </c>
       <c r="BA5">
@@ -4696,13 +4717,13 @@
       <c r="BE5" t="s">
         <v>164</v>
       </c>
-      <c r="BF5" s="4">
+      <c r="BF5" s="3">
         <v>515</v>
       </c>
-      <c r="BG5" s="3">
+      <c r="BG5" s="2">
         <v>6311300</v>
       </c>
-      <c r="BH5" s="4" t="s">
+      <c r="BH5" s="3" t="s">
         <v>165</v>
       </c>
       <c r="BI5">
@@ -4728,7 +4749,7 @@
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3255</v>
       </c>
       <c r="B6" t="s">
@@ -4794,19 +4815,19 @@
       <c r="V6" t="s">
         <v>180</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>31</v>
       </c>
       <c r="X6" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4">
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
         <v>2</v>
       </c>
       <c r="AB6" t="s">
@@ -4854,16 +4875,16 @@
       <c r="AP6" t="s">
         <v>92</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ6" s="3">
         <v>8</v>
       </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3">
         <v>3</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="3">
         <v>0</v>
       </c>
       <c r="BA6">
@@ -4881,13 +4902,13 @@
       <c r="BE6" t="s">
         <v>189</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BF6" s="3">
         <v>997</v>
       </c>
-      <c r="BG6" s="3">
+      <c r="BG6" s="2">
         <v>6307100</v>
       </c>
-      <c r="BH6" s="4" t="s">
+      <c r="BH6" s="3" t="s">
         <v>190</v>
       </c>
       <c r="BI6">
@@ -4913,7 +4934,7 @@
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>29352</v>
       </c>
       <c r="B7" t="s">
@@ -4979,19 +5000,19 @@
       <c r="V7" t="s">
         <v>202</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>30</v>
       </c>
       <c r="X7" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="4">
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
         <v>4</v>
       </c>
       <c r="AB7" t="s">
@@ -5039,16 +5060,16 @@
       <c r="AP7" t="s">
         <v>217</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AQ7" s="3">
         <v>3</v>
       </c>
-      <c r="AR7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="4">
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
         <v>2</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="3">
         <v>0</v>
       </c>
       <c r="BA7">
@@ -5066,13 +5087,13 @@
       <c r="BE7" t="s">
         <v>218</v>
       </c>
-      <c r="BF7" s="4">
+      <c r="BF7" s="3">
         <v>122</v>
       </c>
-      <c r="BG7" s="3">
+      <c r="BG7" s="2">
         <v>4133500</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BH7" s="3" t="s">
         <v>219</v>
       </c>
       <c r="BI7">
@@ -5098,7 +5119,7 @@
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>8768</v>
       </c>
       <c r="B8" t="s">
@@ -5164,19 +5185,19 @@
       <c r="V8" t="s">
         <v>229</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>25</v>
       </c>
       <c r="X8" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4">
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2</v>
       </c>
       <c r="AB8" t="s">
@@ -5224,16 +5245,16 @@
       <c r="AP8" t="s">
         <v>240</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AQ8" s="3">
         <v>6</v>
       </c>
-      <c r="AR8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="4">
+      <c r="AR8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="3">
         <v>2</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AT8" s="3">
         <v>0</v>
       </c>
       <c r="BA8">
@@ -5251,13 +5272,13 @@
       <c r="BE8" t="s">
         <v>241</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BF8" s="3">
         <v>1184</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BG8" s="2">
         <v>4305800</v>
       </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BH8" s="3" t="s">
         <v>242</v>
       </c>
       <c r="BI8">
@@ -5283,7 +5304,7 @@
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>16781</v>
       </c>
       <c r="B9" t="s">
@@ -5349,19 +5370,19 @@
       <c r="V9" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>32</v>
       </c>
       <c r="X9" t="s">
         <v>77</v>
       </c>
-      <c r="Y9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4">
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2</v>
       </c>
       <c r="AB9" t="s">
@@ -5409,16 +5430,16 @@
       <c r="AP9" t="s">
         <v>259</v>
       </c>
-      <c r="AQ9" s="4">
+      <c r="AQ9" s="3">
         <v>5</v>
       </c>
-      <c r="AR9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="4">
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3">
         <v>2</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT9" s="3">
         <v>0</v>
       </c>
       <c r="BA9">
@@ -5436,13 +5457,13 @@
       <c r="BE9" t="s">
         <v>218</v>
       </c>
-      <c r="BF9" s="4">
+      <c r="BF9" s="3">
         <v>230</v>
       </c>
-      <c r="BG9" s="3">
+      <c r="BG9" s="2">
         <v>4241600</v>
       </c>
-      <c r="BH9" s="4" t="s">
+      <c r="BH9" s="3" t="s">
         <v>260</v>
       </c>
       <c r="BI9">
@@ -5468,7 +5489,7 @@
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6869</v>
       </c>
       <c r="B10" t="s">
@@ -5534,19 +5555,19 @@
       <c r="V10" t="s">
         <v>268</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>31</v>
       </c>
       <c r="X10" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="4">
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1</v>
       </c>
       <c r="AB10" t="s">
@@ -5594,16 +5615,16 @@
       <c r="AP10" t="s">
         <v>279</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AQ10" s="3">
         <v>5</v>
       </c>
-      <c r="AR10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="4">
+      <c r="AR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="3">
         <v>0</v>
       </c>
       <c r="BA10">
@@ -5621,13 +5642,13 @@
       <c r="BE10" t="s">
         <v>189</v>
       </c>
-      <c r="BF10" s="4">
+      <c r="BF10" s="3">
         <v>2361</v>
       </c>
-      <c r="BG10" s="3">
+      <c r="BG10" s="2">
         <v>4587800</v>
       </c>
-      <c r="BH10" s="4" t="s">
+      <c r="BH10" s="3" t="s">
         <v>280</v>
       </c>
       <c r="BI10">
@@ -5653,7 +5674,7 @@
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>4261</v>
       </c>
       <c r="B11" t="s">
@@ -5719,19 +5740,19 @@
       <c r="V11" t="s">
         <v>289</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>40</v>
       </c>
       <c r="X11" t="s">
         <v>77</v>
       </c>
-      <c r="Y11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="4">
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
         <v>3</v>
       </c>
       <c r="AB11" t="s">
@@ -5779,16 +5800,16 @@
       <c r="AP11" t="s">
         <v>301</v>
       </c>
-      <c r="AQ11" s="4">
+      <c r="AQ11" s="3">
         <v>6</v>
       </c>
-      <c r="AR11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="4">
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3">
         <v>0</v>
       </c>
       <c r="BA11">
@@ -5806,13 +5827,13 @@
       <c r="BE11" t="s">
         <v>88</v>
       </c>
-      <c r="BF11" s="4">
+      <c r="BF11" s="3">
         <v>154</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BG11" s="2">
         <v>3326100</v>
       </c>
-      <c r="BH11" s="4" t="s">
+      <c r="BH11" s="3" t="s">
         <v>302</v>
       </c>
       <c r="BI11">
@@ -5838,7 +5859,7 @@
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>6532</v>
       </c>
       <c r="B12" t="s">
@@ -5904,19 +5925,19 @@
       <c r="V12" t="s">
         <v>313</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>42</v>
       </c>
       <c r="X12" t="s">
         <v>77</v>
       </c>
-      <c r="Y12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="4">
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1</v>
       </c>
       <c r="AB12" t="s">
@@ -5964,16 +5985,16 @@
       <c r="AP12" t="s">
         <v>326</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AQ12" s="3">
         <v>18</v>
       </c>
-      <c r="AR12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="4">
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3">
         <v>0</v>
       </c>
       <c r="BA12">
@@ -5991,13 +6012,13 @@
       <c r="BE12" t="s">
         <v>327</v>
       </c>
-      <c r="BF12" s="4">
+      <c r="BF12" s="3">
         <v>686</v>
       </c>
-      <c r="BG12" s="3">
+      <c r="BG12" s="2">
         <v>6010200</v>
       </c>
-      <c r="BH12" s="4" t="s">
+      <c r="BH12" s="3" t="s">
         <v>328</v>
       </c>
       <c r="BI12">
@@ -6023,7 +6044,7 @@
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>7909</v>
       </c>
       <c r="B13" t="s">
@@ -6089,19 +6110,19 @@
       <c r="V13" t="s">
         <v>338</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>37</v>
       </c>
       <c r="X13" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="4">
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
         <v>1</v>
       </c>
       <c r="AB13" t="s">
@@ -6149,16 +6170,16 @@
       <c r="AP13" t="s">
         <v>351</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AQ13" s="3">
         <v>4</v>
       </c>
-      <c r="AR13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="4">
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
         <v>2</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT13" s="3">
         <v>0</v>
       </c>
       <c r="BA13">
@@ -6176,13 +6197,13 @@
       <c r="BE13" t="s">
         <v>218</v>
       </c>
-      <c r="BF13" s="4">
+      <c r="BF13" s="3">
         <v>434</v>
       </c>
-      <c r="BG13" s="3">
+      <c r="BG13" s="2">
         <v>2371200</v>
       </c>
-      <c r="BH13" s="4" t="s">
+      <c r="BH13" s="3" t="s">
         <v>352</v>
       </c>
       <c r="BI13">
@@ -6208,7 +6229,7 @@
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>52678</v>
       </c>
       <c r="B14" t="s">
@@ -6274,19 +6295,19 @@
       <c r="V14" t="s">
         <v>360</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>39</v>
       </c>
       <c r="X14" t="s">
         <v>77</v>
       </c>
-      <c r="Y14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="4">
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2</v>
       </c>
       <c r="AB14" t="s">
@@ -6334,16 +6355,16 @@
       <c r="AP14" t="s">
         <v>370</v>
       </c>
-      <c r="AQ14" s="4">
+      <c r="AQ14" s="3">
         <v>4</v>
       </c>
-      <c r="AR14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="4">
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3">
         <v>2</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT14" s="3">
         <v>0</v>
       </c>
       <c r="BA14">
@@ -6361,13 +6382,13 @@
       <c r="BE14" t="s">
         <v>371</v>
       </c>
-      <c r="BF14" s="4">
+      <c r="BF14" s="3">
         <v>236</v>
       </c>
-      <c r="BG14" s="3">
+      <c r="BG14" s="2">
         <v>5247200</v>
       </c>
-      <c r="BH14" s="4" t="s">
+      <c r="BH14" s="3" t="s">
         <v>372</v>
       </c>
       <c r="BI14">
@@ -6393,7 +6414,7 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13615</v>
       </c>
       <c r="B15" t="s">
@@ -6459,19 +6480,19 @@
       <c r="V15" t="s">
         <v>381</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>40</v>
       </c>
       <c r="X15" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="4">
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3">
         <v>1</v>
       </c>
       <c r="AB15" t="s">
@@ -6519,16 +6540,16 @@
       <c r="AP15" t="s">
         <v>88</v>
       </c>
-      <c r="AQ15" s="4">
+      <c r="AQ15" s="3">
         <v>5</v>
       </c>
-      <c r="AR15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="4">
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
         <v>3</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AT15" s="3">
         <v>0</v>
       </c>
       <c r="BA15">
@@ -6546,13 +6567,13 @@
       <c r="BE15" t="s">
         <v>370</v>
       </c>
-      <c r="BF15" s="4">
+      <c r="BF15" s="3">
         <v>199</v>
       </c>
-      <c r="BG15" s="3">
+      <c r="BG15" s="2">
         <v>4437500</v>
       </c>
-      <c r="BH15" s="4" t="s">
+      <c r="BH15" s="3" t="s">
         <v>219</v>
       </c>
       <c r="BI15">
@@ -6578,7 +6599,7 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3325</v>
       </c>
       <c r="B16" t="s">
@@ -6644,19 +6665,19 @@
       <c r="V16" t="s">
         <v>400</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>39</v>
       </c>
       <c r="X16" t="s">
         <v>77</v>
       </c>
-      <c r="Y16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="4">
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
@@ -6704,16 +6725,16 @@
       <c r="AP16" t="s">
         <v>326</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="AQ16" s="3">
         <v>10</v>
       </c>
-      <c r="AR16" s="4">
+      <c r="AR16" s="3">
         <v>3</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="AS16" s="3">
         <v>4</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AT16" s="3">
         <v>0</v>
       </c>
       <c r="BA16">
@@ -6731,13 +6752,13 @@
       <c r="BE16" t="s">
         <v>411</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BF16" s="3">
         <v>493</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BG16" s="2">
         <v>4058200</v>
       </c>
-      <c r="BH16" s="4" t="s">
+      <c r="BH16" s="3" t="s">
         <v>412</v>
       </c>
       <c r="BI16">
@@ -6763,7 +6784,7 @@
       </c>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4826</v>
       </c>
       <c r="B17" t="s">
@@ -6829,19 +6850,19 @@
       <c r="V17" t="s">
         <v>429</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>30</v>
       </c>
       <c r="X17" t="s">
         <v>77</v>
       </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4">
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4</v>
       </c>
       <c r="AB17" t="s">
@@ -6889,16 +6910,16 @@
       <c r="AP17" t="s">
         <v>92</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="AQ17" s="3">
         <v>6</v>
       </c>
-      <c r="AR17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="4">
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="3">
         <v>0</v>
       </c>
       <c r="BA17">
@@ -6916,13 +6937,13 @@
       <c r="BE17" t="s">
         <v>438</v>
       </c>
-      <c r="BF17" s="4">
+      <c r="BF17" s="3">
         <v>444</v>
       </c>
-      <c r="BG17" s="3">
+      <c r="BG17" s="2">
         <v>1782600</v>
       </c>
-      <c r="BH17" s="4" t="s">
+      <c r="BH17" s="3" t="s">
         <v>439</v>
       </c>
       <c r="BI17">
@@ -6948,7 +6969,7 @@
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>24944</v>
       </c>
       <c r="B18" t="s">
@@ -7014,19 +7035,19 @@
       <c r="V18" t="s">
         <v>454</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>30</v>
       </c>
       <c r="X18" t="s">
         <v>77</v>
       </c>
-      <c r="Y18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="4">
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4</v>
       </c>
       <c r="AB18" t="s">
@@ -7074,16 +7095,16 @@
       <c r="AP18" t="s">
         <v>326</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="AQ18" s="3">
         <v>6</v>
       </c>
-      <c r="AR18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="4">
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
         <v>2</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AT18" s="3">
         <v>0</v>
       </c>
       <c r="BA18">
@@ -7101,13 +7122,13 @@
       <c r="BE18" t="s">
         <v>370</v>
       </c>
-      <c r="BF18" s="4">
+      <c r="BF18" s="3">
         <v>557</v>
       </c>
-      <c r="BG18" s="3">
+      <c r="BG18" s="2">
         <v>1495300</v>
       </c>
-      <c r="BH18" s="4" t="s">
+      <c r="BH18" s="3" t="s">
         <v>463</v>
       </c>
       <c r="BI18">
@@ -7133,7 +7154,7 @@
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>75687</v>
       </c>
       <c r="B19" t="s">
@@ -7199,19 +7220,19 @@
       <c r="V19" t="s">
         <v>474</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>38</v>
       </c>
       <c r="X19" t="s">
         <v>77</v>
       </c>
-      <c r="Y19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="4">
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
         <v>1</v>
       </c>
       <c r="AB19" t="s">
@@ -7259,16 +7280,16 @@
       <c r="AP19" t="s">
         <v>485</v>
       </c>
-      <c r="AQ19" s="4">
+      <c r="AQ19" s="3">
         <v>3</v>
       </c>
-      <c r="AR19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="4">
+      <c r="AR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
         <v>2</v>
       </c>
-      <c r="AT19" s="4">
+      <c r="AT19" s="3">
         <v>0</v>
       </c>
       <c r="BA19">
@@ -7286,13 +7307,13 @@
       <c r="BE19" t="s">
         <v>218</v>
       </c>
-      <c r="BF19" s="4">
+      <c r="BF19" s="3">
         <v>290</v>
       </c>
-      <c r="BG19" s="3">
+      <c r="BG19" s="2">
         <v>1924800</v>
       </c>
-      <c r="BH19" s="4" t="s">
+      <c r="BH19" s="3" t="s">
         <v>486</v>
       </c>
       <c r="BI19">
@@ -7318,7 +7339,7 @@
       </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>8133</v>
       </c>
       <c r="B20" t="s">
@@ -7384,19 +7405,19 @@
       <c r="V20" t="s">
         <v>496</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <v>31</v>
       </c>
       <c r="X20" t="s">
         <v>77</v>
       </c>
-      <c r="Y20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="4">
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
         <v>4</v>
       </c>
       <c r="AB20" t="s">
@@ -7444,16 +7465,16 @@
       <c r="AP20" t="s">
         <v>508</v>
       </c>
-      <c r="AQ20" s="4">
+      <c r="AQ20" s="3">
         <v>5</v>
       </c>
-      <c r="AR20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="4">
+      <c r="AR20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3">
         <v>0</v>
       </c>
       <c r="BA20">
@@ -7471,13 +7492,13 @@
       <c r="BE20" t="s">
         <v>115</v>
       </c>
-      <c r="BF20" s="4">
+      <c r="BF20" s="3">
         <v>343</v>
       </c>
-      <c r="BG20" s="3">
+      <c r="BG20" s="2">
         <v>1474900</v>
       </c>
-      <c r="BH20" s="4" t="s">
+      <c r="BH20" s="3" t="s">
         <v>412</v>
       </c>
       <c r="BI20">
@@ -7503,7 +7524,7 @@
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>59893</v>
       </c>
       <c r="B21" t="s">
@@ -7569,19 +7590,19 @@
       <c r="V21" t="s">
         <v>518</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="3">
         <v>32</v>
       </c>
       <c r="X21" t="s">
         <v>77</v>
       </c>
-      <c r="Y21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>4</v>
       </c>
       <c r="AB21" t="s">
@@ -7629,16 +7650,16 @@
       <c r="AP21" t="s">
         <v>92</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="AQ21" s="3">
         <v>11</v>
       </c>
-      <c r="AR21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="4">
+      <c r="AR21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3">
         <v>2</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AT21" s="3">
         <v>0</v>
       </c>
       <c r="BA21">
@@ -7656,13 +7677,13 @@
       <c r="BE21" t="s">
         <v>115</v>
       </c>
-      <c r="BF21" s="4">
+      <c r="BF21" s="3">
         <v>470</v>
       </c>
-      <c r="BG21" s="3">
+      <c r="BG21" s="2">
         <v>1174600</v>
       </c>
-      <c r="BH21" s="4" t="s">
+      <c r="BH21" s="3" t="s">
         <v>530</v>
       </c>
       <c r="BI21">
@@ -7688,7 +7709,7 @@
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>61951</v>
       </c>
       <c r="B22" t="s">
@@ -7754,19 +7775,19 @@
       <c r="V22" t="s">
         <v>544</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="3">
         <v>34</v>
       </c>
       <c r="X22" t="s">
         <v>77</v>
       </c>
-      <c r="Y22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="4">
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4</v>
       </c>
       <c r="AB22" t="s">
@@ -7814,16 +7835,16 @@
       <c r="AP22" t="s">
         <v>326</v>
       </c>
-      <c r="AQ22" s="4">
+      <c r="AQ22" s="3">
         <v>4</v>
       </c>
-      <c r="AR22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="4">
+      <c r="AR22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="3">
         <v>4</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AT22" s="3">
         <v>0</v>
       </c>
       <c r="BA22">
@@ -7841,13 +7862,13 @@
       <c r="BE22" t="s">
         <v>371</v>
       </c>
-      <c r="BF22" s="4">
+      <c r="BF22" s="3">
         <v>88</v>
       </c>
-      <c r="BG22" s="3">
+      <c r="BG22" s="2">
         <v>622200</v>
       </c>
-      <c r="BH22" s="4" t="s">
+      <c r="BH22" s="3" t="s">
         <v>115</v>
       </c>
       <c r="BI22">
@@ -7873,7 +7894,7 @@
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>27800</v>
       </c>
       <c r="B23" t="s">
@@ -7939,19 +7960,19 @@
       <c r="V23" t="s">
         <v>564</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="3">
         <v>31</v>
       </c>
       <c r="X23" t="s">
         <v>77</v>
       </c>
-      <c r="Y23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="4">
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
         <v>3</v>
       </c>
       <c r="AB23" t="s">
@@ -7999,16 +8020,16 @@
       <c r="AP23" t="s">
         <v>576</v>
       </c>
-      <c r="AQ23" s="4">
+      <c r="AQ23" s="3">
         <v>8</v>
       </c>
-      <c r="AR23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="4">
+      <c r="AR23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="3">
         <v>0</v>
       </c>
       <c r="BA23">
@@ -8026,13 +8047,13 @@
       <c r="BE23" t="s">
         <v>218</v>
       </c>
-      <c r="BF23" s="4">
+      <c r="BF23" s="3">
         <v>247</v>
       </c>
-      <c r="BG23" s="3">
+      <c r="BG23" s="2">
         <v>2499400</v>
       </c>
-      <c r="BH23" s="4" t="s">
+      <c r="BH23" s="3" t="s">
         <v>577</v>
       </c>
       <c r="BI23">
@@ -8058,7 +8079,7 @@
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>141095</v>
       </c>
       <c r="B24" t="s">
@@ -8124,19 +8145,19 @@
       <c r="V24" t="s">
         <v>585</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <v>28</v>
       </c>
       <c r="X24" t="s">
         <v>77</v>
       </c>
-      <c r="Y24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="4">
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
         <v>2</v>
       </c>
       <c r="AB24" t="s">
@@ -8184,16 +8205,16 @@
       <c r="AP24" t="s">
         <v>92</v>
       </c>
-      <c r="AQ24" s="4">
+      <c r="AQ24" s="3">
         <v>3</v>
       </c>
-      <c r="AR24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="4">
+      <c r="AR24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="3">
         <v>2</v>
       </c>
-      <c r="AT24" s="4">
+      <c r="AT24" s="3">
         <v>0</v>
       </c>
       <c r="BA24">
@@ -8211,13 +8232,13 @@
       <c r="BE24" t="s">
         <v>88</v>
       </c>
-      <c r="BF24" s="4">
+      <c r="BF24" s="3">
         <v>153</v>
       </c>
-      <c r="BG24" s="3">
+      <c r="BG24" s="2">
         <v>1595800</v>
       </c>
-      <c r="BH24" s="4" t="s">
+      <c r="BH24" s="3" t="s">
         <v>596</v>
       </c>
       <c r="BI24">
@@ -8243,7 +8264,7 @@
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>25989</v>
       </c>
       <c r="B25" t="s">
@@ -8309,19 +8330,19 @@
       <c r="V25" t="s">
         <v>611</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <v>29</v>
       </c>
       <c r="X25" t="s">
         <v>77</v>
       </c>
-      <c r="Y25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="4">
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
         <v>2</v>
       </c>
       <c r="AB25" t="s">
@@ -8369,16 +8390,16 @@
       <c r="AP25" t="s">
         <v>115</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AQ25" s="3">
         <v>6</v>
       </c>
-      <c r="AR25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="4">
+      <c r="AR25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="3">
         <v>2</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT25" s="3">
         <v>0</v>
       </c>
       <c r="BA25">
@@ -8396,13 +8417,13 @@
       <c r="BE25" t="s">
         <v>326</v>
       </c>
-      <c r="BF25" s="4">
+      <c r="BF25" s="3">
         <v>541</v>
       </c>
-      <c r="BG25" s="3">
+      <c r="BG25" s="2">
         <v>4034400</v>
       </c>
-      <c r="BH25" s="4" t="s">
+      <c r="BH25" s="3" t="s">
         <v>618</v>
       </c>
       <c r="BI25">
@@ -8428,7 +8449,7 @@
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>7179</v>
       </c>
       <c r="B26" t="s">
@@ -8494,19 +8515,19 @@
       <c r="V26" t="s">
         <v>626</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="3">
         <v>34</v>
       </c>
       <c r="X26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="4">
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3">
         <v>2</v>
       </c>
       <c r="AB26" t="s">
@@ -8554,16 +8575,16 @@
       <c r="AP26" t="s">
         <v>371</v>
       </c>
-      <c r="AQ26" s="4">
+      <c r="AQ26" s="3">
         <v>8</v>
       </c>
-      <c r="AR26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="4">
+      <c r="AR26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="3">
         <v>3</v>
       </c>
-      <c r="AT26" s="4">
+      <c r="AT26" s="3">
         <v>0</v>
       </c>
       <c r="BA26">
@@ -8581,13 +8602,13 @@
       <c r="BE26" t="s">
         <v>438</v>
       </c>
-      <c r="BF26" s="4">
+      <c r="BF26" s="3">
         <v>254</v>
       </c>
-      <c r="BG26" s="3">
+      <c r="BG26" s="2">
         <v>673000</v>
       </c>
-      <c r="BH26" s="4" t="s">
+      <c r="BH26" s="3" t="s">
         <v>637</v>
       </c>
       <c r="BI26">
@@ -8613,7 +8634,7 @@
       </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>50079</v>
       </c>
       <c r="B27" t="s">
@@ -8679,19 +8700,19 @@
       <c r="V27" t="s">
         <v>649</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <v>41</v>
       </c>
       <c r="X27" t="s">
         <v>77</v>
       </c>
-      <c r="Y27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="4">
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1</v>
       </c>
       <c r="AB27" t="s">
@@ -8739,16 +8760,16 @@
       <c r="AP27" t="s">
         <v>92</v>
       </c>
-      <c r="AQ27" s="4">
+      <c r="AQ27" s="3">
         <v>5</v>
       </c>
-      <c r="AR27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="4">
+      <c r="AR27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="3">
         <v>0</v>
       </c>
       <c r="BA27">
@@ -8766,13 +8787,13 @@
       <c r="BE27" t="s">
         <v>370</v>
       </c>
-      <c r="BF27" s="4">
+      <c r="BF27" s="3">
         <v>100</v>
       </c>
-      <c r="BG27" s="3">
+      <c r="BG27" s="2">
         <v>1030500</v>
       </c>
-      <c r="BH27" s="4" t="s">
+      <c r="BH27" s="3" t="s">
         <v>438</v>
       </c>
       <c r="BI27">
@@ -8798,7 +8819,7 @@
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>65766</v>
       </c>
       <c r="B28" t="s">
@@ -8864,19 +8885,19 @@
       <c r="V28" t="s">
         <v>670</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="3">
         <v>35</v>
       </c>
       <c r="X28" t="s">
         <v>671</v>
       </c>
-      <c r="Y28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="4">
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3">
         <v>4</v>
       </c>
       <c r="AB28" t="s">
@@ -8924,16 +8945,16 @@
       <c r="AP28" t="s">
         <v>370</v>
       </c>
-      <c r="AQ28" s="4">
+      <c r="AQ28" s="3">
         <v>8</v>
       </c>
-      <c r="AR28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="4">
+      <c r="AR28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
         <v>2</v>
       </c>
-      <c r="AT28" s="4">
+      <c r="AT28" s="3">
         <v>0</v>
       </c>
       <c r="BA28">
@@ -8951,13 +8972,13 @@
       <c r="BE28" t="s">
         <v>326</v>
       </c>
-      <c r="BF28" s="4">
+      <c r="BF28" s="3">
         <v>216</v>
       </c>
-      <c r="BG28" s="3">
+      <c r="BG28" s="2">
         <v>1296800</v>
       </c>
-      <c r="BH28" s="4" t="s">
+      <c r="BH28" s="3" t="s">
         <v>439</v>
       </c>
       <c r="BI28">
@@ -8983,7 +9004,7 @@
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>14068</v>
       </c>
       <c r="B29" t="s">
@@ -9049,19 +9070,19 @@
       <c r="V29" t="s">
         <v>683</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="3">
         <v>43</v>
       </c>
       <c r="X29" t="s">
         <v>77</v>
       </c>
-      <c r="Y29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="4">
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1</v>
       </c>
       <c r="AB29" t="s">
@@ -9109,16 +9130,16 @@
       <c r="AP29" t="s">
         <v>115</v>
       </c>
-      <c r="AQ29" s="4">
+      <c r="AQ29" s="3">
         <v>15</v>
       </c>
-      <c r="AR29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="4">
+      <c r="AR29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="3">
         <v>2</v>
       </c>
-      <c r="AT29" s="4">
+      <c r="AT29" s="3">
         <v>0</v>
       </c>
       <c r="BA29">
@@ -9136,13 +9157,13 @@
       <c r="BE29" t="s">
         <v>370</v>
       </c>
-      <c r="BF29" s="4">
+      <c r="BF29" s="3">
         <v>162</v>
       </c>
-      <c r="BG29" s="3">
+      <c r="BG29" s="2">
         <v>1398500</v>
       </c>
-      <c r="BH29" s="4" t="s">
+      <c r="BH29" s="3" t="s">
         <v>486</v>
       </c>
       <c r="BI29">
@@ -9168,7 +9189,7 @@
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>7020</v>
       </c>
       <c r="B30" t="s">
@@ -9234,19 +9255,19 @@
       <c r="V30" t="s">
         <v>702</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="3">
         <v>50</v>
       </c>
       <c r="X30" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="4">
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="3">
         <v>1</v>
       </c>
       <c r="AB30" t="s">
@@ -9294,16 +9315,16 @@
       <c r="AP30" t="s">
         <v>241</v>
       </c>
-      <c r="AQ30" s="4">
+      <c r="AQ30" s="3">
         <v>5</v>
       </c>
-      <c r="AR30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="4">
+      <c r="AR30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="3">
         <v>3</v>
       </c>
-      <c r="AT30" s="4">
+      <c r="AT30" s="3">
         <v>0</v>
       </c>
       <c r="BA30">
@@ -9321,13 +9342,13 @@
       <c r="BE30" t="s">
         <v>88</v>
       </c>
-      <c r="BF30" s="4">
+      <c r="BF30" s="3">
         <v>422</v>
       </c>
-      <c r="BG30" s="3">
+      <c r="BG30" s="2">
         <v>1930700</v>
       </c>
-      <c r="BH30" s="4" t="s">
+      <c r="BH30" s="3" t="s">
         <v>714</v>
       </c>
       <c r="BI30">
@@ -9353,7 +9374,7 @@
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>25613</v>
       </c>
       <c r="B31" t="s">
@@ -9419,19 +9440,19 @@
       <c r="V31" t="s">
         <v>722</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <v>37</v>
       </c>
       <c r="X31" t="s">
         <v>77</v>
       </c>
-      <c r="Y31" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="4">
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
         <v>2</v>
       </c>
       <c r="AB31" t="s">
@@ -9479,16 +9500,16 @@
       <c r="AP31" t="s">
         <v>370</v>
       </c>
-      <c r="AQ31" s="4">
+      <c r="AQ31" s="3">
         <v>10</v>
       </c>
-      <c r="AR31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="4">
+      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="3">
         <v>0</v>
       </c>
       <c r="BA31">
@@ -9506,13 +9527,13 @@
       <c r="BE31" t="s">
         <v>370</v>
       </c>
-      <c r="BF31" s="4">
+      <c r="BF31" s="3">
         <v>391</v>
       </c>
-      <c r="BG31" s="3">
+      <c r="BG31" s="2">
         <v>3891200</v>
       </c>
-      <c r="BH31" s="4" t="s">
+      <c r="BH31" s="3" t="s">
         <v>733</v>
       </c>
       <c r="BI31">
@@ -9538,7 +9559,7 @@
       </c>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>6657</v>
       </c>
       <c r="B32" t="s">
@@ -9604,19 +9625,19 @@
       <c r="V32" t="s">
         <v>741</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="3">
         <v>42</v>
       </c>
       <c r="X32" t="s">
         <v>77</v>
       </c>
-      <c r="Y32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="4">
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="3">
         <v>4</v>
       </c>
       <c r="AB32" t="s">
@@ -9664,16 +9685,16 @@
       <c r="AP32" t="s">
         <v>92</v>
       </c>
-      <c r="AQ32" s="4">
+      <c r="AQ32" s="3">
         <v>12</v>
       </c>
-      <c r="AR32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="4">
+      <c r="AR32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="3">
         <v>2</v>
       </c>
-      <c r="AT32" s="4">
+      <c r="AT32" s="3">
         <v>0</v>
       </c>
       <c r="BA32">
@@ -9691,13 +9712,13 @@
       <c r="BE32" t="s">
         <v>371</v>
       </c>
-      <c r="BF32" s="4">
+      <c r="BF32" s="3">
         <v>347</v>
       </c>
-      <c r="BG32" s="3">
+      <c r="BG32" s="2">
         <v>4168800</v>
       </c>
-      <c r="BH32" s="4" t="s">
+      <c r="BH32" s="3" t="s">
         <v>751</v>
       </c>
       <c r="BI32">
@@ -9723,7 +9744,7 @@
       </c>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>211109</v>
       </c>
       <c r="B33" t="s">
@@ -9789,19 +9810,19 @@
       <c r="V33" t="s">
         <v>761</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="3">
         <v>28</v>
       </c>
       <c r="X33" t="s">
         <v>671</v>
       </c>
-      <c r="Y33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="4">
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="3">
         <v>4</v>
       </c>
       <c r="AB33" t="s">
@@ -9849,16 +9870,16 @@
       <c r="AP33" t="s">
         <v>773</v>
       </c>
-      <c r="AQ33" s="4">
+      <c r="AQ33" s="3">
         <v>3</v>
       </c>
-      <c r="AR33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="4">
+      <c r="AR33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="3">
         <v>3</v>
       </c>
-      <c r="AT33" s="4">
+      <c r="AT33" s="3">
         <v>0</v>
       </c>
       <c r="BA33">
@@ -9876,13 +9897,13 @@
       <c r="BE33" t="s">
         <v>774</v>
       </c>
-      <c r="BF33" s="4">
+      <c r="BF33" s="3">
         <v>137</v>
       </c>
-      <c r="BG33" s="3">
+      <c r="BG33" s="2">
         <v>484250</v>
       </c>
-      <c r="BH33" s="4" t="s">
+      <c r="BH33" s="3" t="s">
         <v>164</v>
       </c>
       <c r="BI33">
@@ -9908,7 +9929,7 @@
       </c>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>68519</v>
       </c>
       <c r="B34" t="s">
@@ -9974,19 +9995,19 @@
       <c r="V34" t="s">
         <v>782</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="3">
         <v>32</v>
       </c>
       <c r="X34" t="s">
         <v>77</v>
       </c>
-      <c r="Y34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="4">
+      <c r="Y34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="3">
         <v>1</v>
       </c>
       <c r="AB34" t="s">
@@ -10034,16 +10055,16 @@
       <c r="AP34" t="s">
         <v>794</v>
       </c>
-      <c r="AQ34" s="4">
+      <c r="AQ34" s="3">
         <v>4</v>
       </c>
-      <c r="AR34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="4">
+      <c r="AR34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="3">
         <v>3</v>
       </c>
-      <c r="AT34" s="4">
+      <c r="AT34" s="3">
         <v>0</v>
       </c>
       <c r="BA34">
@@ -10061,13 +10082,13 @@
       <c r="BE34" t="s">
         <v>115</v>
       </c>
-      <c r="BF34" s="4">
+      <c r="BF34" s="3">
         <v>318</v>
       </c>
-      <c r="BG34" s="3">
+      <c r="BG34" s="2">
         <v>1106400</v>
       </c>
-      <c r="BH34" s="4" t="s">
+      <c r="BH34" s="3" t="s">
         <v>438</v>
       </c>
       <c r="BI34">
@@ -10093,7 +10114,7 @@
       </c>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>11151</v>
       </c>
       <c r="B35" t="s">
@@ -10159,19 +10180,19 @@
       <c r="V35" t="s">
         <v>806</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="3">
         <v>42</v>
       </c>
       <c r="X35" t="s">
         <v>77</v>
       </c>
-      <c r="Y35" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="4">
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1</v>
       </c>
       <c r="AB35" t="s">
@@ -10219,16 +10240,16 @@
       <c r="AP35" t="s">
         <v>92</v>
       </c>
-      <c r="AQ35" s="4">
+      <c r="AQ35" s="3">
         <v>8</v>
       </c>
-      <c r="AR35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="4">
+      <c r="AR35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="3">
         <v>2</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="AT35" s="3">
         <v>0</v>
       </c>
       <c r="BA35">
@@ -10246,13 +10267,13 @@
       <c r="BE35" t="s">
         <v>411</v>
       </c>
-      <c r="BF35" s="4">
+      <c r="BF35" s="3">
         <v>66</v>
       </c>
-      <c r="BG35" s="3">
+      <c r="BG35" s="2">
         <v>43300</v>
       </c>
-      <c r="BH35" s="4" t="s">
+      <c r="BH35" s="3" t="s">
         <v>370</v>
       </c>
       <c r="BI35">
@@ -10278,7 +10299,7 @@
       </c>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>81385</v>
       </c>
       <c r="B36" t="s">
@@ -10344,19 +10365,19 @@
       <c r="V36" t="s">
         <v>824</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="3">
         <v>27</v>
       </c>
       <c r="X36" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="4">
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
         <v>4</v>
       </c>
       <c r="AB36" t="s">
@@ -10404,16 +10425,16 @@
       <c r="AP36" t="s">
         <v>835</v>
       </c>
-      <c r="AQ36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="4">
+      <c r="AQ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3">
         <v>2</v>
       </c>
-      <c r="AT36" s="4">
+      <c r="AT36" s="3">
         <v>0</v>
       </c>
       <c r="BA36">
@@ -10431,13 +10452,13 @@
       <c r="BE36" t="s">
         <v>326</v>
       </c>
-      <c r="BF36" s="4">
+      <c r="BF36" s="3">
         <v>84</v>
       </c>
-      <c r="BG36" s="3">
+      <c r="BG36" s="2">
         <v>1098400</v>
       </c>
-      <c r="BH36" s="4" t="s">
+      <c r="BH36" s="3" t="s">
         <v>241</v>
       </c>
       <c r="BI36">
@@ -10463,7 +10484,7 @@
       </c>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>5409</v>
       </c>
       <c r="B37" t="s">
@@ -10529,19 +10550,19 @@
       <c r="V37" t="s">
         <v>843</v>
       </c>
-      <c r="W37" s="4">
+      <c r="W37" s="3">
         <v>43</v>
       </c>
       <c r="X37" t="s">
         <v>77</v>
       </c>
-      <c r="Y37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="4">
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="3">
         <v>2</v>
       </c>
       <c r="AB37" t="s">
@@ -10589,16 +10610,16 @@
       <c r="AP37" t="s">
         <v>92</v>
       </c>
-      <c r="AQ37" s="4">
+      <c r="AQ37" s="3">
         <v>10</v>
       </c>
-      <c r="AR37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="4">
+      <c r="AR37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="3">
         <v>2</v>
       </c>
-      <c r="AT37" s="4">
+      <c r="AT37" s="3">
         <v>0</v>
       </c>
       <c r="BA37">
@@ -10616,13 +10637,13 @@
       <c r="BE37" t="s">
         <v>411</v>
       </c>
-      <c r="BF37" s="4">
+      <c r="BF37" s="3">
         <v>214</v>
       </c>
-      <c r="BG37" s="3">
+      <c r="BG37" s="2">
         <v>1996900</v>
       </c>
-      <c r="BH37" s="4" t="s">
+      <c r="BH37" s="3" t="s">
         <v>854</v>
       </c>
       <c r="BI37">
@@ -10648,7 +10669,7 @@
       </c>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>8919</v>
       </c>
       <c r="B38" t="s">
@@ -10714,19 +10735,19 @@
       <c r="V38" t="s">
         <v>862</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="3">
         <v>37</v>
       </c>
       <c r="X38" t="s">
         <v>77</v>
       </c>
-      <c r="Y38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="4">
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="3">
         <v>1</v>
       </c>
       <c r="AB38" t="s">
@@ -10774,16 +10795,16 @@
       <c r="AP38" t="s">
         <v>92</v>
       </c>
-      <c r="AQ38" s="4">
+      <c r="AQ38" s="3">
         <v>15</v>
       </c>
-      <c r="AR38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="4">
+      <c r="AR38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="3">
         <v>2</v>
       </c>
-      <c r="AT38" s="4">
+      <c r="AT38" s="3">
         <v>0</v>
       </c>
       <c r="BA38">
@@ -10801,13 +10822,13 @@
       <c r="BE38" t="s">
         <v>326</v>
       </c>
-      <c r="BF38" s="4">
+      <c r="BF38" s="3">
         <v>115</v>
       </c>
-      <c r="BG38" s="3">
+      <c r="BG38" s="2">
         <v>669900</v>
       </c>
-      <c r="BH38" s="4" t="s">
+      <c r="BH38" s="3" t="s">
         <v>637</v>
       </c>
       <c r="BI38">
@@ -10833,7 +10854,7 @@
       </c>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>2538</v>
       </c>
       <c r="B39" t="s">
@@ -10899,19 +10920,19 @@
       <c r="V39" t="s">
         <v>878</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="3">
         <v>32</v>
       </c>
       <c r="X39" t="s">
         <v>77</v>
       </c>
-      <c r="Y39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="4">
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="3">
         <v>4</v>
       </c>
       <c r="AB39" t="s">
@@ -10959,16 +10980,16 @@
       <c r="AP39" t="s">
         <v>889</v>
       </c>
-      <c r="AQ39" s="4">
+      <c r="AQ39" s="3">
         <v>5</v>
       </c>
-      <c r="AR39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="4">
+      <c r="AR39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="3">
         <v>2</v>
       </c>
-      <c r="AT39" s="4">
+      <c r="AT39" s="3">
         <v>0</v>
       </c>
       <c r="BA39">
@@ -10986,13 +11007,13 @@
       <c r="BE39" t="s">
         <v>115</v>
       </c>
-      <c r="BF39" s="4">
+      <c r="BF39" s="3">
         <v>641</v>
       </c>
-      <c r="BG39" s="3">
+      <c r="BG39" s="2">
         <v>3110800</v>
       </c>
-      <c r="BH39" s="4" t="s">
+      <c r="BH39" s="3" t="s">
         <v>890</v>
       </c>
       <c r="BI39">
@@ -11018,7 +11039,7 @@
       </c>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>132331</v>
       </c>
       <c r="B40" t="s">
@@ -11084,19 +11105,19 @@
       <c r="V40" t="s">
         <v>902</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="3">
         <v>35</v>
       </c>
       <c r="X40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="4">
+      <c r="Y40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3">
         <v>3</v>
       </c>
       <c r="AB40" t="s">
@@ -11144,16 +11165,16 @@
       <c r="AP40" t="s">
         <v>88</v>
       </c>
-      <c r="AQ40" s="4">
+      <c r="AQ40" s="3">
         <v>3</v>
       </c>
-      <c r="AR40" s="4">
+      <c r="AR40" s="3">
         <v>2</v>
       </c>
-      <c r="AS40" s="4">
+      <c r="AS40" s="3">
         <v>4</v>
       </c>
-      <c r="AT40" s="4">
+      <c r="AT40" s="3">
         <v>0</v>
       </c>
       <c r="BA40">
@@ -11171,13 +11192,13 @@
       <c r="BE40" t="s">
         <v>326</v>
       </c>
-      <c r="BF40" s="4">
+      <c r="BF40" s="3">
         <v>45</v>
       </c>
-      <c r="BG40" s="3">
+      <c r="BG40" s="2">
         <v>702200</v>
       </c>
-      <c r="BH40" s="4" t="s">
+      <c r="BH40" s="3" t="s">
         <v>115</v>
       </c>
       <c r="BI40">
@@ -11203,7 +11224,7 @@
       </c>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>56615</v>
       </c>
       <c r="B41" t="s">
@@ -11269,19 +11290,19 @@
       <c r="V41" t="s">
         <v>919</v>
       </c>
-      <c r="W41" s="4">
+      <c r="W41" s="3">
         <v>34</v>
       </c>
       <c r="X41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="4">
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3">
         <v>3</v>
       </c>
       <c r="AB41" t="s">
@@ -11329,16 +11350,16 @@
       <c r="AP41" t="s">
         <v>87</v>
       </c>
-      <c r="AQ41" s="4">
+      <c r="AQ41" s="3">
         <v>5</v>
       </c>
-      <c r="AR41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="4">
+      <c r="AR41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="3">
         <v>0</v>
       </c>
       <c r="BA41">
@@ -11356,13 +11377,13 @@
       <c r="BE41" t="s">
         <v>218</v>
       </c>
-      <c r="BF41" s="4">
+      <c r="BF41" s="3">
         <v>183</v>
       </c>
-      <c r="BG41" s="3">
+      <c r="BG41" s="2">
         <v>795700</v>
       </c>
-      <c r="BH41" s="4" t="s">
+      <c r="BH41" s="3" t="s">
         <v>596</v>
       </c>
       <c r="BI41">
@@ -11388,7 +11409,7 @@
       </c>
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>6953</v>
       </c>
       <c r="B42" t="s">
@@ -11454,19 +11475,19 @@
       <c r="V42" t="s">
         <v>934</v>
       </c>
-      <c r="W42" s="4">
+      <c r="W42" s="3">
         <v>37</v>
       </c>
       <c r="X42" t="s">
         <v>77</v>
       </c>
-      <c r="Y42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="4">
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3">
         <v>1</v>
       </c>
       <c r="AB42" t="s">
@@ -11514,16 +11535,16 @@
       <c r="AP42" t="s">
         <v>92</v>
       </c>
-      <c r="AQ42" s="4">
+      <c r="AQ42" s="3">
         <v>5</v>
       </c>
-      <c r="AR42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="4">
+      <c r="AR42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="3">
         <v>0</v>
       </c>
       <c r="BA42">
@@ -11541,13 +11562,13 @@
       <c r="BE42" t="s">
         <v>774</v>
       </c>
-      <c r="BF42" s="4">
+      <c r="BF42" s="3">
         <v>159</v>
       </c>
-      <c r="BG42" s="3">
+      <c r="BG42" s="2">
         <v>23800</v>
       </c>
-      <c r="BH42" s="4" t="s">
+      <c r="BH42" s="3" t="s">
         <v>326</v>
       </c>
       <c r="BI42">
@@ -11573,7 +11594,7 @@
       </c>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>27412</v>
       </c>
       <c r="B43" t="s">
@@ -11639,19 +11660,19 @@
       <c r="V43" t="s">
         <v>950</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W43" s="3">
         <v>40</v>
       </c>
       <c r="X43" t="s">
         <v>77</v>
       </c>
-      <c r="Y43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="4">
+      <c r="Y43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="3">
         <v>2</v>
       </c>
       <c r="AB43" t="s">
@@ -11699,16 +11720,16 @@
       <c r="AP43" t="s">
         <v>371</v>
       </c>
-      <c r="AQ43" s="4">
+      <c r="AQ43" s="3">
         <v>4</v>
       </c>
-      <c r="AR43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="4">
+      <c r="AR43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="3">
         <v>3</v>
       </c>
-      <c r="AT43" s="4">
+      <c r="AT43" s="3">
         <v>0</v>
       </c>
       <c r="BA43">
@@ -11726,13 +11747,13 @@
       <c r="BE43" t="s">
         <v>326</v>
       </c>
-      <c r="BF43" s="4">
+      <c r="BF43" s="3">
         <v>60</v>
       </c>
-      <c r="BG43" s="3">
+      <c r="BG43" s="2">
         <v>779100</v>
       </c>
-      <c r="BH43" s="4" t="s">
+      <c r="BH43" s="3" t="s">
         <v>961</v>
       </c>
       <c r="BI43">
@@ -11758,7 +11779,7 @@
       </c>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>332209</v>
       </c>
       <c r="B44" t="s">
@@ -11824,19 +11845,19 @@
       <c r="V44" t="s">
         <v>971</v>
       </c>
-      <c r="W44" s="4">
+      <c r="W44" s="3">
         <v>44</v>
       </c>
       <c r="X44" t="s">
         <v>671</v>
       </c>
-      <c r="Y44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="4">
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1</v>
       </c>
       <c r="AB44" t="s">
@@ -11884,16 +11905,16 @@
       <c r="AP44" t="s">
         <v>327</v>
       </c>
-      <c r="AQ44" s="4">
+      <c r="AQ44" s="3">
         <v>4</v>
       </c>
-      <c r="AR44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="4">
+      <c r="AR44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="3">
         <v>2</v>
       </c>
-      <c r="AT44" s="4">
+      <c r="AT44" s="3">
         <v>0</v>
       </c>
       <c r="BA44">
@@ -11911,13 +11932,13 @@
       <c r="BE44" t="s">
         <v>218</v>
       </c>
-      <c r="BF44" s="4">
+      <c r="BF44" s="3">
         <v>137</v>
       </c>
-      <c r="BG44" s="3">
+      <c r="BG44" s="2">
         <v>39800</v>
       </c>
-      <c r="BH44" s="4" t="s">
+      <c r="BH44" s="3" t="s">
         <v>371</v>
       </c>
       <c r="BI44">
@@ -11943,7 +11964,7 @@
       </c>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>207023</v>
       </c>
       <c r="B45" t="s">
@@ -12009,19 +12030,19 @@
       <c r="V45" t="s">
         <v>990</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="3">
         <v>28</v>
       </c>
       <c r="X45" t="s">
         <v>77</v>
       </c>
-      <c r="Y45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="4">
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1</v>
       </c>
       <c r="AB45" t="s">
@@ -12069,16 +12090,16 @@
       <c r="AP45" t="s">
         <v>999</v>
       </c>
-      <c r="AQ45" s="4">
+      <c r="AQ45" s="3">
         <v>3</v>
       </c>
-      <c r="AR45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="4">
+      <c r="AR45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="3">
         <v>2</v>
       </c>
-      <c r="AT45" s="4">
+      <c r="AT45" s="3">
         <v>0</v>
       </c>
       <c r="BA45">
@@ -12096,13 +12117,13 @@
       <c r="BE45" t="s">
         <v>218</v>
       </c>
-      <c r="BF45" s="4">
+      <c r="BF45" s="3">
         <v>40</v>
       </c>
-      <c r="BG45" s="3">
+      <c r="BG45" s="2">
         <v>216800</v>
       </c>
-      <c r="BH45" s="4" t="s">
+      <c r="BH45" s="3" t="s">
         <v>371</v>
       </c>
       <c r="BI45">
@@ -12128,7 +12149,7 @@
       </c>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>16536</v>
       </c>
       <c r="B46" t="s">
@@ -12194,19 +12215,19 @@
       <c r="V46" t="s">
         <v>1007</v>
       </c>
-      <c r="W46" s="4">
+      <c r="W46" s="3">
         <v>44</v>
       </c>
       <c r="X46" t="s">
         <v>77</v>
       </c>
-      <c r="Y46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="4">
+      <c r="Y46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="3">
         <v>2</v>
       </c>
       <c r="AB46" t="s">
@@ -12254,16 +12275,16 @@
       <c r="AP46" t="s">
         <v>1019</v>
       </c>
-      <c r="AQ46" s="4">
+      <c r="AQ46" s="3">
         <v>14</v>
       </c>
-      <c r="AR46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="4">
+      <c r="AR46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="3">
         <v>3</v>
       </c>
-      <c r="AT46" s="4">
+      <c r="AT46" s="3">
         <v>0</v>
       </c>
       <c r="BA46">
@@ -12281,13 +12302,13 @@
       <c r="BE46" t="s">
         <v>115</v>
       </c>
-      <c r="BF46" s="4">
+      <c r="BF46" s="3">
         <v>95</v>
       </c>
-      <c r="BG46" s="3">
+      <c r="BG46" s="2">
         <v>1846700</v>
       </c>
-      <c r="BH46" s="4" t="s">
+      <c r="BH46" s="3" t="s">
         <v>1020</v>
       </c>
       <c r="BI46">
@@ -12313,7 +12334,7 @@
       </c>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>21696</v>
       </c>
       <c r="B47" t="s">
@@ -12379,19 +12400,19 @@
       <c r="V47" t="s">
         <v>1029</v>
       </c>
-      <c r="W47" s="4">
+      <c r="W47" s="3">
         <v>33</v>
       </c>
       <c r="X47" t="s">
         <v>77</v>
       </c>
-      <c r="Y47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="4">
+      <c r="Y47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1</v>
       </c>
       <c r="AB47" t="s">
@@ -12439,16 +12460,16 @@
       <c r="AP47" t="s">
         <v>1041</v>
       </c>
-      <c r="AQ47" s="4">
+      <c r="AQ47" s="3">
         <v>5</v>
       </c>
-      <c r="AR47" s="4">
+      <c r="AR47" s="3">
         <v>2</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="AS47" s="3">
         <v>4</v>
       </c>
-      <c r="AT47" s="4">
+      <c r="AT47" s="3">
         <v>0</v>
       </c>
       <c r="BA47">
@@ -12466,13 +12487,13 @@
       <c r="BE47" t="s">
         <v>218</v>
       </c>
-      <c r="BF47" s="4">
+      <c r="BF47" s="3">
         <v>50</v>
       </c>
-      <c r="BG47" s="3">
+      <c r="BG47" s="2">
         <v>3043100</v>
       </c>
-      <c r="BH47" s="4" t="s">
+      <c r="BH47" s="3" t="s">
         <v>219</v>
       </c>
       <c r="BI47">
@@ -12498,7 +12519,7 @@
       </c>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>2573</v>
       </c>
       <c r="B48" t="s">
@@ -12564,19 +12585,19 @@
       <c r="V48" t="s">
         <v>1053</v>
       </c>
-      <c r="W48" s="4">
+      <c r="W48" s="3">
         <v>37</v>
       </c>
       <c r="X48" t="s">
         <v>77</v>
       </c>
-      <c r="Y48" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="4">
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="3">
         <v>4</v>
       </c>
       <c r="AB48" t="s">
@@ -12624,16 +12645,16 @@
       <c r="AP48" t="s">
         <v>1065</v>
       </c>
-      <c r="AQ48" s="4">
+      <c r="AQ48" s="3">
         <v>14</v>
       </c>
-      <c r="AR48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="4">
+      <c r="AR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="3">
         <v>0</v>
       </c>
       <c r="BA48">
@@ -12651,13 +12672,13 @@
       <c r="BE48" t="s">
         <v>1066</v>
       </c>
-      <c r="BF48" s="4">
+      <c r="BF48" s="3">
         <v>675</v>
       </c>
-      <c r="BG48" s="3">
+      <c r="BG48" s="2">
         <v>6546100</v>
       </c>
-      <c r="BH48" s="4" t="s">
+      <c r="BH48" s="3" t="s">
         <v>1067</v>
       </c>
       <c r="BI48">
@@ -12683,7 +12704,7 @@
       </c>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>23817</v>
       </c>
       <c r="B49" t="s">
@@ -12749,19 +12770,19 @@
       <c r="V49" t="s">
         <v>1080</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W49" s="3">
         <v>26</v>
       </c>
       <c r="X49" t="s">
         <v>671</v>
       </c>
-      <c r="Y49" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="4">
+      <c r="Y49" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2</v>
       </c>
       <c r="AB49" t="s">
@@ -12809,16 +12830,16 @@
       <c r="AP49" t="s">
         <v>92</v>
       </c>
-      <c r="AQ49" s="4">
+      <c r="AQ49" s="3">
         <v>5</v>
       </c>
-      <c r="AR49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS49" s="4">
+      <c r="AR49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="3">
         <v>2</v>
       </c>
-      <c r="AT49" s="4">
+      <c r="AT49" s="3">
         <v>0</v>
       </c>
       <c r="BA49">
@@ -12836,13 +12857,13 @@
       <c r="BE49" t="s">
         <v>115</v>
       </c>
-      <c r="BF49" s="4">
+      <c r="BF49" s="3">
         <v>168</v>
       </c>
-      <c r="BG49" s="3">
+      <c r="BG49" s="2">
         <v>4686600</v>
       </c>
-      <c r="BH49" s="4" t="s">
+      <c r="BH49" s="3" t="s">
         <v>439</v>
       </c>
       <c r="BI49">
@@ -12868,7 +12889,7 @@
       </c>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>11632</v>
       </c>
       <c r="B50" t="s">
@@ -12934,19 +12955,19 @@
       <c r="V50" t="s">
         <v>1098</v>
       </c>
-      <c r="W50" s="4">
+      <c r="W50" s="3">
         <v>37</v>
       </c>
       <c r="X50" t="s">
         <v>77</v>
       </c>
-      <c r="Y50" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="4">
+      <c r="Y50" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="3">
         <v>1</v>
       </c>
       <c r="AB50" t="s">
@@ -12994,16 +13015,16 @@
       <c r="AP50" t="s">
         <v>92</v>
       </c>
-      <c r="AQ50" s="4">
+      <c r="AQ50" s="3">
         <v>6</v>
       </c>
-      <c r="AR50" s="4">
+      <c r="AR50" s="3">
         <v>2</v>
       </c>
-      <c r="AS50" s="4">
+      <c r="AS50" s="3">
         <v>4</v>
       </c>
-      <c r="AT50" s="4">
+      <c r="AT50" s="3">
         <v>0</v>
       </c>
       <c r="BA50">
@@ -13021,13 +13042,13 @@
       <c r="BE50" t="s">
         <v>141</v>
       </c>
-      <c r="BF50" s="4">
+      <c r="BF50" s="3">
         <v>371</v>
       </c>
-      <c r="BG50" s="3">
+      <c r="BG50" s="2">
         <v>5704800</v>
       </c>
-      <c r="BH50" s="4" t="s">
+      <c r="BH50" s="3" t="s">
         <v>854</v>
       </c>
       <c r="BI50">
